--- a/chesstempo_tactics.xlsx
+++ b/chesstempo_tactics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="543">
   <si>
     <t>969.4</t>
   </si>
@@ -420,6 +420,1239 @@
   </si>
   <si>
     <t>1301.0 (+3.2)</t>
+  </si>
+  <si>
+    <t>1322.6</t>
+  </si>
+  <si>
+    <t>1407.5 (-18.5)</t>
+  </si>
+  <si>
+    <t>1372.2</t>
+  </si>
+  <si>
+    <t>1425.9 (+13.1)</t>
+  </si>
+  <si>
+    <t>1274.3</t>
+  </si>
+  <si>
+    <t>1412.8 (+10.0)</t>
+  </si>
+  <si>
+    <t>1091.2</t>
+  </si>
+  <si>
+    <t>1402.8 (+4.8)</t>
+  </si>
+  <si>
+    <t>1213.3</t>
+  </si>
+  <si>
+    <t>1398.0 (-26.0)</t>
+  </si>
+  <si>
+    <t>1333.7</t>
+  </si>
+  <si>
+    <t>1424.0 (+13.7)</t>
+  </si>
+  <si>
+    <t>1360.7</t>
+  </si>
+  <si>
+    <t>1410.3 (+16.6)</t>
+  </si>
+  <si>
+    <t>1297.5</t>
+  </si>
+  <si>
+    <t>1393.7 (+14.9)</t>
+  </si>
+  <si>
+    <t>1079.3</t>
+  </si>
+  <si>
+    <t>1378.9 (+6.4)</t>
+  </si>
+  <si>
+    <t>1249.6</t>
+  </si>
+  <si>
+    <t>1372.5 (+14.8)</t>
+  </si>
+  <si>
+    <t>1228.7</t>
+  </si>
+  <si>
+    <t>1357.7 (+15.3)</t>
+  </si>
+  <si>
+    <t>1254.0</t>
+  </si>
+  <si>
+    <t>1342.4 (-31.6)</t>
+  </si>
+  <si>
+    <t>1352.8</t>
+  </si>
+  <si>
+    <t>1374.0 (+25.6)</t>
+  </si>
+  <si>
+    <t>1033.8</t>
+  </si>
+  <si>
+    <t>1348.4 (+8.0)</t>
+  </si>
+  <si>
+    <t>1169.2</t>
+  </si>
+  <si>
+    <t>1340.5 (-43.9)</t>
+  </si>
+  <si>
+    <t>1197.7</t>
+  </si>
+  <si>
+    <t>1384.3 (+16.3)</t>
+  </si>
+  <si>
+    <t>1143.8</t>
+  </si>
+  <si>
+    <t>1368.0 (+14.8)</t>
+  </si>
+  <si>
+    <t>1090.3</t>
+  </si>
+  <si>
+    <t>1353.2 (+13.2)</t>
+  </si>
+  <si>
+    <t>1338.7</t>
+  </si>
+  <si>
+    <t>1339.9 (-41.1)</t>
+  </si>
+  <si>
+    <t>1004.5</t>
+  </si>
+  <si>
+    <t>1381.0 (+8.8)</t>
+  </si>
+  <si>
+    <t>1124.3</t>
+  </si>
+  <si>
+    <t>1345.8 (+3.5)</t>
+  </si>
+  <si>
+    <t>1220.1</t>
+  </si>
+  <si>
+    <t>1342.3 (+5.5)</t>
+  </si>
+  <si>
+    <t>1115.8</t>
+  </si>
+  <si>
+    <t>1336.7 (+3.8)</t>
+  </si>
+  <si>
+    <t>1201.6</t>
+  </si>
+  <si>
+    <t>1332.9 (+5.8)</t>
+  </si>
+  <si>
+    <t>1298.1</t>
+  </si>
+  <si>
+    <t>1327.2 (-10.1)</t>
+  </si>
+  <si>
+    <t>1229.4</t>
+  </si>
+  <si>
+    <t>1337.3 (-12.6)</t>
+  </si>
+  <si>
+    <t>1480.0</t>
+  </si>
+  <si>
+    <t>1350.0 (-6.5)</t>
+  </si>
+  <si>
+    <t>1205.3</t>
+  </si>
+  <si>
+    <t>1356.5 (-14.8)</t>
+  </si>
+  <si>
+    <t>1358.1</t>
+  </si>
+  <si>
+    <t>1371.2 (+10.5)</t>
+  </si>
+  <si>
+    <t>1096.9</t>
+  </si>
+  <si>
+    <t>1360.8 (+4.1)</t>
+  </si>
+  <si>
+    <t>1197.5</t>
+  </si>
+  <si>
+    <t>1356.7 (-16.8)</t>
+  </si>
+  <si>
+    <t>1424.3</t>
+  </si>
+  <si>
+    <t>1373.5 (-10.5)</t>
+  </si>
+  <si>
+    <t>1237.8</t>
+  </si>
+  <si>
+    <t>1384.0 (+7.7)</t>
+  </si>
+  <si>
+    <t>1390.7</t>
+  </si>
+  <si>
+    <t>1376.3 (-12.7)</t>
+  </si>
+  <si>
+    <t>1307.6</t>
+  </si>
+  <si>
+    <t>1389.0 (-16.9)</t>
+  </si>
+  <si>
+    <t>1498.0</t>
+  </si>
+  <si>
+    <t>1405.9 (-1.5)</t>
+  </si>
+  <si>
+    <t>1395.5</t>
+  </si>
+  <si>
+    <t>1330.4 (+4.8)</t>
+  </si>
+  <si>
+    <t>1157.5</t>
+  </si>
+  <si>
+    <t>1325.7 (+2.3)</t>
+  </si>
+  <si>
+    <t>1135.4</t>
+  </si>
+  <si>
+    <t>1323.4 (-6.4)</t>
+  </si>
+  <si>
+    <t>1137.9</t>
+  </si>
+  <si>
+    <t>1329.8 (+2.2)</t>
+  </si>
+  <si>
+    <t>1422.3</t>
+  </si>
+  <si>
+    <t>1327.6 (-3.4)</t>
+  </si>
+  <si>
+    <t>1302.1</t>
+  </si>
+  <si>
+    <t>1331.0 (+4.4)</t>
+  </si>
+  <si>
+    <t>1312.2</t>
+  </si>
+  <si>
+    <t>1326.6 (-5.2)</t>
+  </si>
+  <si>
+    <t>1092.2</t>
+  </si>
+  <si>
+    <t>1331.8 (+2.1)</t>
+  </si>
+  <si>
+    <t>1230.8</t>
+  </si>
+  <si>
+    <t>1329.7 (-6.9)</t>
+  </si>
+  <si>
+    <t>1338.9</t>
+  </si>
+  <si>
+    <t>1336.5 (-5.5)</t>
+  </si>
+  <si>
+    <t>1215.1</t>
+  </si>
+  <si>
+    <t>1342.1 (-7.8)</t>
+  </si>
+  <si>
+    <t>1285.2</t>
+  </si>
+  <si>
+    <t>1349.9 (+4.9)</t>
+  </si>
+  <si>
+    <t>1264.7</t>
+  </si>
+  <si>
+    <t>1345.0 (-7.6)</t>
+  </si>
+  <si>
+    <t>1315.0</t>
+  </si>
+  <si>
+    <t>1352.6 (+5.8)</t>
+  </si>
+  <si>
+    <t>1032.6</t>
+  </si>
+  <si>
+    <t>1346.8 (+1.9)</t>
+  </si>
+  <si>
+    <t>1304.3</t>
+  </si>
+  <si>
+    <t>1344.9 (-7.8)</t>
+  </si>
+  <si>
+    <t>1144.3</t>
+  </si>
+  <si>
+    <t>1352.7 (+3.4)</t>
+  </si>
+  <si>
+    <t>1118.9</t>
+  </si>
+  <si>
+    <t>1349.4 (+3.2)</t>
+  </si>
+  <si>
+    <t>1331.5</t>
+  </si>
+  <si>
+    <t>1346.2 (+7.5)</t>
+  </si>
+  <si>
+    <t>1384.8</t>
+  </si>
+  <si>
+    <t>1338.7 (-7.0)</t>
+  </si>
+  <si>
+    <t>1178.8</t>
+  </si>
+  <si>
+    <t>1333.2 (+2.1)</t>
+  </si>
+  <si>
+    <t>1193.0</t>
+  </si>
+  <si>
+    <t>1331.2 (-4.9)</t>
+  </si>
+  <si>
+    <t>1347.3</t>
+  </si>
+  <si>
+    <t>1336.0 (+3.6)</t>
+  </si>
+  <si>
+    <t>1489.1</t>
+  </si>
+  <si>
+    <t>1332.4 (+5.0)</t>
+  </si>
+  <si>
+    <t>1164.4</t>
+  </si>
+  <si>
+    <t>1327.4 (+2.0)</t>
+  </si>
+  <si>
+    <t>1136.0</t>
+  </si>
+  <si>
+    <t>1325.4 (+1.8)</t>
+  </si>
+  <si>
+    <t>1199.7</t>
+  </si>
+  <si>
+    <t>1323.6 (-4.8)</t>
+  </si>
+  <si>
+    <t>1276.3</t>
+  </si>
+  <si>
+    <t>1328.5 (+3.2)</t>
+  </si>
+  <si>
+    <t>1209.3</t>
+  </si>
+  <si>
+    <t>1325.3 (-5.1)</t>
+  </si>
+  <si>
+    <t>1401.2</t>
+  </si>
+  <si>
+    <t>1345.1 (+4.1)</t>
+  </si>
+  <si>
+    <t>1214.7</t>
+  </si>
+  <si>
+    <t>1341.0 (+2.3)</t>
+  </si>
+  <si>
+    <t>1165.2</t>
+  </si>
+  <si>
+    <t>1338.7 (-5.1)</t>
+  </si>
+  <si>
+    <t>1352.7</t>
+  </si>
+  <si>
+    <t>1343.8 (-3.4)</t>
+  </si>
+  <si>
+    <t>1321.0</t>
+  </si>
+  <si>
+    <t>1347.3 (+3.3)</t>
+  </si>
+  <si>
+    <t>1034.9</t>
+  </si>
+  <si>
+    <t>1344.0 (+1.0)</t>
+  </si>
+  <si>
+    <t>1291.8</t>
+  </si>
+  <si>
+    <t>1343.0 (+3.0)</t>
+  </si>
+  <si>
+    <t>1251.5</t>
+  </si>
+  <si>
+    <t>1340.0 (+2.6)</t>
+  </si>
+  <si>
+    <t>1226.6</t>
+  </si>
+  <si>
+    <t>1337.3 (-4.6)</t>
+  </si>
+  <si>
+    <t>1229.9</t>
+  </si>
+  <si>
+    <t>1341.9 (+2.4)</t>
+  </si>
+  <si>
+    <t>1287.2</t>
+  </si>
+  <si>
+    <t>1339.5 (+3.0)</t>
+  </si>
+  <si>
+    <t>1340.3</t>
+  </si>
+  <si>
+    <t>1336.5 (-3.5)</t>
+  </si>
+  <si>
+    <t>1178.3</t>
+  </si>
+  <si>
+    <t>1340.0 (-5.1)</t>
+  </si>
+  <si>
+    <t>1281.3</t>
+  </si>
+  <si>
+    <t>1345.0 (+2.9)</t>
+  </si>
+  <si>
+    <t>1342.2 (+2.1)</t>
+  </si>
+  <si>
+    <t>1153.7</t>
+  </si>
+  <si>
+    <t>1340.1 (+1.8)</t>
+  </si>
+  <si>
+    <t>1233.8</t>
+  </si>
+  <si>
+    <t>1338.3 (+2.5)</t>
+  </si>
+  <si>
+    <t>945.1</t>
+  </si>
+  <si>
+    <t>1335.8 (+0.7)</t>
+  </si>
+  <si>
+    <t>1335.1 (+1.8)</t>
+  </si>
+  <si>
+    <t>1113.6</t>
+  </si>
+  <si>
+    <t>1333.3 (+1.6)</t>
+  </si>
+  <si>
+    <t>1021.6</t>
+  </si>
+  <si>
+    <t>1331.8 (+1.0)</t>
+  </si>
+  <si>
+    <t>1359.5</t>
+  </si>
+  <si>
+    <t>1330.8 (-3.2)</t>
+  </si>
+  <si>
+    <t>1037.8</t>
+  </si>
+  <si>
+    <t>1334.0 (+1.1)</t>
+  </si>
+  <si>
+    <t>1332.9 (-5.3)</t>
+  </si>
+  <si>
+    <t>1395.6</t>
+  </si>
+  <si>
+    <t>1338.2 (+4.1)</t>
+  </si>
+  <si>
+    <t>1319.5</t>
+  </si>
+  <si>
+    <t>1334.1 (+3.4)</t>
+  </si>
+  <si>
+    <t>1346.4</t>
+  </si>
+  <si>
+    <t>1330.7 (+3.7)</t>
+  </si>
+  <si>
+    <t>1043.8</t>
+  </si>
+  <si>
+    <t>1327.0 (+1.2)</t>
+  </si>
+  <si>
+    <t>1191.9</t>
+  </si>
+  <si>
+    <t>1325.9 (-4.8)</t>
+  </si>
+  <si>
+    <t>1223.2</t>
+  </si>
+  <si>
+    <t>1330.7 (-4.7)</t>
+  </si>
+  <si>
+    <t>1078.7</t>
+  </si>
+  <si>
+    <t>1335.4 (+1.4)</t>
+  </si>
+  <si>
+    <t>940.8</t>
+  </si>
+  <si>
+    <t>1334.0 (+0.8)</t>
+  </si>
+  <si>
+    <t>1233.0</t>
+  </si>
+  <si>
+    <t>1331.9 (+2.5)</t>
+  </si>
+  <si>
+    <t>1300.8</t>
+  </si>
+  <si>
+    <t>1329.4 (+3.2)</t>
+  </si>
+  <si>
+    <t>1389.8</t>
+  </si>
+  <si>
+    <t>1326.1 (-2.9)</t>
+  </si>
+  <si>
+    <t>1194.9</t>
+  </si>
+  <si>
+    <t>1329.0 (+2.2)</t>
+  </si>
+  <si>
+    <t>1326.8 (-4.2)</t>
+  </si>
+  <si>
+    <t>1097.8</t>
+  </si>
+  <si>
+    <t>1331.0 (-5.6)</t>
+  </si>
+  <si>
+    <t>1230.1</t>
+  </si>
+  <si>
+    <t>1336.6 (+2.5)</t>
+  </si>
+  <si>
+    <t>1185.7</t>
+  </si>
+  <si>
+    <t>1334.1 (+2.1)</t>
+  </si>
+  <si>
+    <t>1405.0</t>
+  </si>
+  <si>
+    <t>1332.0 (-2.8)</t>
+  </si>
+  <si>
+    <t>1142.0</t>
+  </si>
+  <si>
+    <t>1334.8 (-5.3)</t>
+  </si>
+  <si>
+    <t>1243.1</t>
+  </si>
+  <si>
+    <t>1340.1 (-4.5)</t>
+  </si>
+  <si>
+    <t>1487.1</t>
+  </si>
+  <si>
+    <t>1344.6 (-2.2)</t>
+  </si>
+  <si>
+    <t>1213.9</t>
+  </si>
+  <si>
+    <t>1346.8 (+2.2)</t>
+  </si>
+  <si>
+    <t>1359.2</t>
+  </si>
+  <si>
+    <t>1344.5 (-3.4)</t>
+  </si>
+  <si>
+    <t>1311.8</t>
+  </si>
+  <si>
+    <t>1347.9 (+3.2)</t>
+  </si>
+  <si>
+    <t>1245.3</t>
+  </si>
+  <si>
+    <t>1344.7 (+2.5)</t>
+  </si>
+  <si>
+    <t>1110.6</t>
+  </si>
+  <si>
+    <t>1342.2 (+1.5)</t>
+  </si>
+  <si>
+    <t>1196.7</t>
+  </si>
+  <si>
+    <t>1340.7 (-4.9)</t>
+  </si>
+  <si>
+    <t>1435.1</t>
+  </si>
+  <si>
+    <t>1345.6 (-2.6)</t>
+  </si>
+  <si>
+    <t>1214.5</t>
+  </si>
+  <si>
+    <t>1348.3 (+2.2)</t>
+  </si>
+  <si>
+    <t>1037.7</t>
+  </si>
+  <si>
+    <t>1346.0 (+1.0)</t>
+  </si>
+  <si>
+    <t>1274.4</t>
+  </si>
+  <si>
+    <t>1345.0 (+2.8)</t>
+  </si>
+  <si>
+    <t>1250.5</t>
+  </si>
+  <si>
+    <t>1342.2 (+2.6)</t>
+  </si>
+  <si>
+    <t>1210.8</t>
+  </si>
+  <si>
+    <t>1339.6 (-4.8)</t>
+  </si>
+  <si>
+    <t>1191.3</t>
+  </si>
+  <si>
+    <t>1344.3 (+2.1)</t>
+  </si>
+  <si>
+    <t>1298.4</t>
+  </si>
+  <si>
+    <t>1342.3 (-4.0)</t>
+  </si>
+  <si>
+    <t>1219.3</t>
+  </si>
+  <si>
+    <t>1346.2 (+2.3)</t>
+  </si>
+  <si>
+    <t>1222.3</t>
+  </si>
+  <si>
+    <t>1344.0 (-4.7)</t>
+  </si>
+  <si>
+    <t>1409.7</t>
+  </si>
+  <si>
+    <t>1348.7 (-2.9)</t>
+  </si>
+  <si>
+    <t>1359.1</t>
+  </si>
+  <si>
+    <t>1351.6 (-3.4)</t>
+  </si>
+  <si>
+    <t>1195.4</t>
+  </si>
+  <si>
+    <t>1355.0 (+2.0)</t>
+  </si>
+  <si>
+    <t>1088.4</t>
+  </si>
+  <si>
+    <t>1353.0 (-5.8)</t>
+  </si>
+  <si>
+    <t>1320.6</t>
+  </si>
+  <si>
+    <t>1358.8 (-3.9)</t>
+  </si>
+  <si>
+    <t>1223.4</t>
+  </si>
+  <si>
+    <t>1362.7 (+2.1)</t>
+  </si>
+  <si>
+    <t>1224.1</t>
+  </si>
+  <si>
+    <t>1360.6 (+2.2)</t>
+  </si>
+  <si>
+    <t>1326.9</t>
+  </si>
+  <si>
+    <t>1358.4 (-3.8)</t>
+  </si>
+  <si>
+    <t>1183.0</t>
+  </si>
+  <si>
+    <t>1362.2 (+1.9)</t>
+  </si>
+  <si>
+    <t>1098.6</t>
+  </si>
+  <si>
+    <t>1360.4 (+1.3)</t>
+  </si>
+  <si>
+    <t>1359.1 (+3.8)</t>
+  </si>
+  <si>
+    <t>1238.8</t>
+  </si>
+  <si>
+    <t>1355.3 (-4.7)</t>
+  </si>
+  <si>
+    <t>1202.7</t>
+  </si>
+  <si>
+    <t>1360.0 (+2.0)</t>
+  </si>
+  <si>
+    <t>1353.4</t>
+  </si>
+  <si>
+    <t>1358.0 (+3.5)</t>
+  </si>
+  <si>
+    <t>1230.9</t>
+  </si>
+  <si>
+    <t>1354.5 (+2.3)</t>
+  </si>
+  <si>
+    <t>1352.2 (+0.8)</t>
+  </si>
+  <si>
+    <t>1234.9</t>
+  </si>
+  <si>
+    <t>1351.3 (+2.3)</t>
+  </si>
+  <si>
+    <t>1085.8</t>
+  </si>
+  <si>
+    <t>1349.0 (+1.3)</t>
+  </si>
+  <si>
+    <t>1347.7 (+2.6)</t>
+  </si>
+  <si>
+    <t>1302.2</t>
+  </si>
+  <si>
+    <t>1325.6 (-3.8)</t>
+  </si>
+  <si>
+    <t>1132.1</t>
+  </si>
+  <si>
+    <t>1329.4 (+1.7)</t>
+  </si>
+  <si>
+    <t>1197.2</t>
+  </si>
+  <si>
+    <t>1327.7 (-4.8)</t>
+  </si>
+  <si>
+    <t>1257.9</t>
+  </si>
+  <si>
+    <t>1332.5 (+2.8)</t>
+  </si>
+  <si>
+    <t>1323.4</t>
+  </si>
+  <si>
+    <t>1329.7 (-3.6)</t>
+  </si>
+  <si>
+    <t>1258.6</t>
+  </si>
+  <si>
+    <t>1333.3 (+2.8)</t>
+  </si>
+  <si>
+    <t>1211.7</t>
+  </si>
+  <si>
+    <t>1330.5 (-4.7)</t>
+  </si>
+  <si>
+    <t>1058.8</t>
+  </si>
+  <si>
+    <t>1335.2 (+1.2)</t>
+  </si>
+  <si>
+    <t>1271.0</t>
+  </si>
+  <si>
+    <t>1334.0 (+3.0)</t>
+  </si>
+  <si>
+    <t>1236.9</t>
+  </si>
+  <si>
+    <t>1331.0 (+2.7)</t>
+  </si>
+  <si>
+    <t>1067.3</t>
+  </si>
+  <si>
+    <t>1328.3 (-6.3)</t>
+  </si>
+  <si>
+    <t>1334.6 (+1.7)</t>
+  </si>
+  <si>
+    <t>1299.7</t>
+  </si>
+  <si>
+    <t>1332.9 (+3.8)</t>
+  </si>
+  <si>
+    <t>1329.1 (+2.6)</t>
+  </si>
+  <si>
+    <t>1326.5 (+2.8)</t>
+  </si>
+  <si>
+    <t>1341.4</t>
+  </si>
+  <si>
+    <t>1323.6 (-4.4)</t>
+  </si>
+  <si>
+    <t>1328.0 (+3.3)</t>
+  </si>
+  <si>
+    <t>1169.7</t>
+  </si>
+  <si>
+    <t>1324.7 (+2.9)</t>
+  </si>
+  <si>
+    <t>1214.2</t>
+  </si>
+  <si>
+    <t>1321.9 (+3.6)</t>
+  </si>
+  <si>
+    <t>1338.2</t>
+  </si>
+  <si>
+    <t>1318.2 (-5.0)</t>
+  </si>
+  <si>
+    <t>1338.1</t>
+  </si>
+  <si>
+    <t>1323.3 (-5.3)</t>
+  </si>
+  <si>
+    <t>1194.5</t>
+  </si>
+  <si>
+    <t>1328.6 (+3.6)</t>
+  </si>
+  <si>
+    <t>1328.9</t>
+  </si>
+  <si>
+    <t>1325.0 (-4.5)</t>
+  </si>
+  <si>
+    <t>1240.7</t>
+  </si>
+  <si>
+    <t>1329.5 (+3.6)</t>
+  </si>
+  <si>
+    <t>1146.4</t>
+  </si>
+  <si>
+    <t>1325.9 (+2.6)</t>
+  </si>
+  <si>
+    <t>1323.4 (-8.5)</t>
+  </si>
+  <si>
+    <t>1207.2</t>
+  </si>
+  <si>
+    <t>1335.0 (+2.3)</t>
+  </si>
+  <si>
+    <t>1218.2</t>
+  </si>
+  <si>
+    <t>1332.7 (+2.4)</t>
+  </si>
+  <si>
+    <t>1210.4</t>
+  </si>
+  <si>
+    <t>1330.3 (-4.7)</t>
+  </si>
+  <si>
+    <t>1114.1</t>
+  </si>
+  <si>
+    <t>1335.0 (+1.5)</t>
+  </si>
+  <si>
+    <t>1182.5</t>
+  </si>
+  <si>
+    <t>1333.5 (-5.0)</t>
+  </si>
+  <si>
+    <t>982.4</t>
+  </si>
+  <si>
+    <t>1338.4 (+0.8)</t>
+  </si>
+  <si>
+    <t>1077.8</t>
+  </si>
+  <si>
+    <t>1337.6 (+1.3)</t>
+  </si>
+  <si>
+    <t>1257.3</t>
+  </si>
+  <si>
+    <t>1336.3 (+2.7)</t>
+  </si>
+  <si>
+    <t>1327.7</t>
+  </si>
+  <si>
+    <t>1333.6 (+3.5)</t>
+  </si>
+  <si>
+    <t>1081.8</t>
+  </si>
+  <si>
+    <t>1330.1 (+1.4)</t>
+  </si>
+  <si>
+    <t>1222.5</t>
+  </si>
+  <si>
+    <t>1328.8 (+2.5)</t>
+  </si>
+  <si>
+    <t>1388.2</t>
+  </si>
+  <si>
+    <t>1326.3 (+4.1)</t>
+  </si>
+  <si>
+    <t>1223.1</t>
+  </si>
+  <si>
+    <t>1322.1 (+2.5)</t>
+  </si>
+  <si>
+    <t>1154.5</t>
+  </si>
+  <si>
+    <t>1319.6 (+2.0)</t>
+  </si>
+  <si>
+    <t>1477.4</t>
+  </si>
+  <si>
+    <t>1317.6 (-2.0)</t>
+  </si>
+  <si>
+    <t>1295.8</t>
+  </si>
+  <si>
+    <t>1326.0 (-3.8)</t>
+  </si>
+  <si>
+    <t>1137.7</t>
+  </si>
+  <si>
+    <t>1329.9 (+1.8)</t>
+  </si>
+  <si>
+    <t>1188.3</t>
+  </si>
+  <si>
+    <t>1328.1 (+2.2)</t>
+  </si>
+  <si>
+    <t>1322.8</t>
+  </si>
+  <si>
+    <t>1325.9 (-3.6)</t>
+  </si>
+  <si>
+    <t>1216.9</t>
+  </si>
+  <si>
+    <t>1329.5 (-4.6)</t>
+  </si>
+  <si>
+    <t>1231.4</t>
+  </si>
+  <si>
+    <t>1334.1 (-4.5)</t>
+  </si>
+  <si>
+    <t>1205.6</t>
+  </si>
+  <si>
+    <t>1338.6 (+2.2)</t>
+  </si>
+  <si>
+    <t>1091.8</t>
+  </si>
+  <si>
+    <t>1336.4 (+1.4)</t>
+  </si>
+  <si>
+    <t>1107.2</t>
+  </si>
+  <si>
+    <t>1326.3 (+1.6)</t>
+  </si>
+  <si>
+    <t>1319.0</t>
+  </si>
+  <si>
+    <t>1324.8 (+3.5)</t>
+  </si>
+  <si>
+    <t>1200.5</t>
+  </si>
+  <si>
+    <t>1321.3 (-4.7)</t>
+  </si>
+  <si>
+    <t>1386.1</t>
+  </si>
+  <si>
+    <t>1326.0 (+4.1)</t>
+  </si>
+  <si>
+    <t>1102.2</t>
+  </si>
+  <si>
+    <t>1321.9 (+1.6)</t>
+  </si>
+  <si>
+    <t>1021.3</t>
+  </si>
+  <si>
+    <t>1320.3 (+1.1)</t>
+  </si>
+  <si>
+    <t>1236.3</t>
+  </si>
+  <si>
+    <t>1319.2 (-4.3)</t>
+  </si>
+  <si>
+    <t>1270.0</t>
+  </si>
+  <si>
+    <t>1323.6 (-4.1)</t>
+  </si>
+  <si>
+    <t>1119.4</t>
+  </si>
+  <si>
+    <t>1327.7 (+1.6)</t>
+  </si>
+  <si>
+    <t>1394.0</t>
+  </si>
+  <si>
+    <t>1327.6 (-2.9)</t>
+  </si>
+  <si>
+    <t>1005.8</t>
+  </si>
+  <si>
+    <t>1330.5 (+0.9)</t>
+  </si>
+  <si>
+    <t>906.1</t>
+  </si>
+  <si>
+    <t>1329.5 (+0.6)</t>
+  </si>
+  <si>
+    <t>1307.5</t>
+  </si>
+  <si>
+    <t>1329.0 (+3.3)</t>
+  </si>
+  <si>
+    <t>1325.7 (-4.5)</t>
+  </si>
+  <si>
+    <t>1039.8</t>
+  </si>
+  <si>
+    <t>1330.1 (+1.1)</t>
+  </si>
+  <si>
+    <t>1319.7</t>
+  </si>
+  <si>
+    <t>1329.0 (-3.6)</t>
+  </si>
+  <si>
+    <t>1175.9</t>
+  </si>
+  <si>
+    <t>1332.6 (+2.0)</t>
+  </si>
+  <si>
+    <t>1210.3</t>
+  </si>
+  <si>
+    <t>1330.6 (+2.4)</t>
+  </si>
+  <si>
+    <t>1160.4</t>
+  </si>
+  <si>
+    <t>1328.3 (+1.9)</t>
   </si>
 </sst>
 </file>
@@ -739,15 +1972,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265:I274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2548,6 +3781,6154 @@
         <v>131</v>
       </c>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1">
+        <v>42378.744791666664</v>
+      </c>
+      <c r="C63">
+        <v>53722</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" s="1">
+        <v>42378.744456018518</v>
+      </c>
+      <c r="C64">
+        <v>59395</v>
+      </c>
+      <c r="D64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="G64" s="2">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="H64" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1">
+        <v>42378.743113425924</v>
+      </c>
+      <c r="C65">
+        <v>14053</v>
+      </c>
+      <c r="D65" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="G65" s="2">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" s="1">
+        <v>42378.742673611108</v>
+      </c>
+      <c r="C66">
+        <v>22078</v>
+      </c>
+      <c r="D66" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H66" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67" s="1">
+        <v>42378.742361111108</v>
+      </c>
+      <c r="C67">
+        <v>47894</v>
+      </c>
+      <c r="D67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="G67" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68" s="1">
+        <v>42378.742199074077</v>
+      </c>
+      <c r="C68">
+        <v>77333</v>
+      </c>
+      <c r="D68" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="G68" s="2">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="H68" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1">
+        <v>42378.740740740737</v>
+      </c>
+      <c r="C69">
+        <v>142390</v>
+      </c>
+      <c r="D69" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>42378.740300925929</v>
+      </c>
+      <c r="C70">
+        <v>40964</v>
+      </c>
+      <c r="D70" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="G70" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H70" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71" s="1">
+        <v>42378.74013888889</v>
+      </c>
+      <c r="C71">
+        <v>158635</v>
+      </c>
+      <c r="D71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="G71" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72" s="1">
+        <v>42378.739953703705</v>
+      </c>
+      <c r="C72">
+        <v>73084</v>
+      </c>
+      <c r="D72" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="H72" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>11</v>
+      </c>
+      <c r="B73" s="1">
+        <v>42378.739722222221</v>
+      </c>
+      <c r="C73">
+        <v>56969</v>
+      </c>
+      <c r="D73" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="G73" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>12</v>
+      </c>
+      <c r="B74" s="1">
+        <v>42378.739224537036</v>
+      </c>
+      <c r="C74">
+        <v>48162</v>
+      </c>
+      <c r="D74" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="G74" s="2">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>13</v>
+      </c>
+      <c r="B75" s="1">
+        <v>42378.737500000003</v>
+      </c>
+      <c r="C75">
+        <v>100437</v>
+      </c>
+      <c r="D75" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="G75" s="2">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="H75" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>14</v>
+      </c>
+      <c r="B76" s="1">
+        <v>42378.736932870372</v>
+      </c>
+      <c r="C76">
+        <v>91434</v>
+      </c>
+      <c r="D76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H76" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>15</v>
+      </c>
+      <c r="B77" s="1">
+        <v>42378.736620370371</v>
+      </c>
+      <c r="C77">
+        <v>45297</v>
+      </c>
+      <c r="D77" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="G77" s="2">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>16</v>
+      </c>
+      <c r="B78" s="1">
+        <v>42378.734895833331</v>
+      </c>
+      <c r="C78">
+        <v>165302</v>
+      </c>
+      <c r="D78" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="H78" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="I78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>17</v>
+      </c>
+      <c r="B79" s="1">
+        <v>42378.734560185185</v>
+      </c>
+      <c r="C79">
+        <v>54859</v>
+      </c>
+      <c r="D79" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="H79" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="I79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>18</v>
+      </c>
+      <c r="B80" s="1">
+        <v>42378.734224537038</v>
+      </c>
+      <c r="C80">
+        <v>148949</v>
+      </c>
+      <c r="D80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="H80" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>19</v>
+      </c>
+      <c r="B81" s="1">
+        <v>42378.733136574076</v>
+      </c>
+      <c r="C81">
+        <v>55729</v>
+      </c>
+      <c r="D81" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="G81" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>20</v>
+      </c>
+      <c r="B82" s="1">
+        <v>42378.732893518521</v>
+      </c>
+      <c r="C82">
+        <v>159502</v>
+      </c>
+      <c r="D82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42378.781712962962</v>
+      </c>
+      <c r="C83">
+        <v>148921</v>
+      </c>
+      <c r="D83" t="s">
+        <v>172</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H83" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I83" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42378.781504629631</v>
+      </c>
+      <c r="C84">
+        <v>98675</v>
+      </c>
+      <c r="D84" t="s">
+        <v>174</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="H84" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42378.781145833331</v>
+      </c>
+      <c r="C85">
+        <v>101853</v>
+      </c>
+      <c r="D85" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="G85" s="2">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="H85" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42378.780428240738</v>
+      </c>
+      <c r="C86">
+        <v>73692</v>
+      </c>
+      <c r="D86" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="G86" s="2">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="H86" s="2">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="I86" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42378.779664351852</v>
+      </c>
+      <c r="C87">
+        <v>56263</v>
+      </c>
+      <c r="D87" t="s">
+        <v>180</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42378.779398148145</v>
+      </c>
+      <c r="C88">
+        <v>63321</v>
+      </c>
+      <c r="D88" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="G88" s="2">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42378.778599537036</v>
+      </c>
+      <c r="C89">
+        <v>48012</v>
+      </c>
+      <c r="D89" t="s">
+        <v>184</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.12430555555555556</v>
+      </c>
+      <c r="G89" s="2">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42378.776875000003</v>
+      </c>
+      <c r="C90">
+        <v>146212</v>
+      </c>
+      <c r="D90" t="s">
+        <v>186</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G90" s="2">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42378.775243055556</v>
+      </c>
+      <c r="C91">
+        <v>77883</v>
+      </c>
+      <c r="D91" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="G91" s="2">
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="H91" s="2">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="I91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>10</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42378.773576388892</v>
+      </c>
+      <c r="C92">
+        <v>100700</v>
+      </c>
+      <c r="D92" t="s">
+        <v>190</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="G92" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H92" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="I92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>11</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42378.773252314815</v>
+      </c>
+      <c r="C93">
+        <v>72310</v>
+      </c>
+      <c r="D93" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="G93" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>12</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42378.772916666669</v>
+      </c>
+      <c r="C94">
+        <v>88672</v>
+      </c>
+      <c r="D94" t="s">
+        <v>194</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="G94" s="2">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="H94" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="I94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>13</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42378.772627314815</v>
+      </c>
+      <c r="C95">
+        <v>104378</v>
+      </c>
+      <c r="D95" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="G95" s="2">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="H95" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>14</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42378.772106481483</v>
+      </c>
+      <c r="C96">
+        <v>159771</v>
+      </c>
+      <c r="D96" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="G96" s="2">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="H96" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>15</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42378.770486111112</v>
+      </c>
+      <c r="C97">
+        <v>26008</v>
+      </c>
+      <c r="D97" t="s">
+        <v>200</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="G97" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>16</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42378.77002314815</v>
+      </c>
+      <c r="C98">
+        <v>166779</v>
+      </c>
+      <c r="D98" t="s">
+        <v>202</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G98" s="2">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42379.682986111111</v>
+      </c>
+      <c r="C99">
+        <v>158234</v>
+      </c>
+      <c r="D99" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="G99" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="H99" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42379.682824074072</v>
+      </c>
+      <c r="C100">
+        <v>92174</v>
+      </c>
+      <c r="D100" t="s">
+        <v>206</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F100" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="G100" s="2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H100" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42379.68246527778</v>
+      </c>
+      <c r="C101">
+        <v>150489</v>
+      </c>
+      <c r="D101" t="s">
+        <v>208</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="G101" s="2">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" s="1">
+        <v>42379.680983796294</v>
+      </c>
+      <c r="C102">
+        <v>72531</v>
+      </c>
+      <c r="D102" t="s">
+        <v>210</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1</v>
+      </c>
+      <c r="F102" s="2">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="G102" s="2">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="H102" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I102" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>42379.68037037037</v>
+      </c>
+      <c r="C103">
+        <v>46745</v>
+      </c>
+      <c r="D103" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" s="2">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="G103" s="2">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="H103" s="2">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104" s="1">
+        <v>42379.680104166669</v>
+      </c>
+      <c r="C104">
+        <v>51132</v>
+      </c>
+      <c r="D104" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="G104" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105" s="1">
+        <v>42379.679849537039</v>
+      </c>
+      <c r="C105">
+        <v>2749</v>
+      </c>
+      <c r="D105" t="s">
+        <v>216</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1</v>
+      </c>
+      <c r="F105" s="2">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="G105" s="2">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="H105" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="I105" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>42379.679131944446</v>
+      </c>
+      <c r="C106">
+        <v>47340</v>
+      </c>
+      <c r="D106" t="s">
+        <v>218</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="2">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="G106" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="H106" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I106" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>9</v>
+      </c>
+      <c r="B107" s="1">
+        <v>42379.678576388891</v>
+      </c>
+      <c r="C107">
+        <v>59695</v>
+      </c>
+      <c r="D107" t="s">
+        <v>220</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107" s="2">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="G107" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="H107" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I107" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>10</v>
+      </c>
+      <c r="B108" s="1">
+        <v>42379.677847222221</v>
+      </c>
+      <c r="C108">
+        <v>63525</v>
+      </c>
+      <c r="D108" t="s">
+        <v>222</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" s="2">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="G108" s="2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H108" s="2">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>11</v>
+      </c>
+      <c r="B109" s="1">
+        <v>42379.676863425928</v>
+      </c>
+      <c r="C109">
+        <v>149781</v>
+      </c>
+      <c r="D109" t="s">
+        <v>224</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="G109" s="2">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="H109" s="2">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>12</v>
+      </c>
+      <c r="B110" s="1">
+        <v>42379.676412037035</v>
+      </c>
+      <c r="C110">
+        <v>80428</v>
+      </c>
+      <c r="D110" t="s">
+        <v>226</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="G110" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="H110" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I110" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>13</v>
+      </c>
+      <c r="B111" s="1">
+        <v>42379.676018518519</v>
+      </c>
+      <c r="C111">
+        <v>17460</v>
+      </c>
+      <c r="D111" t="s">
+        <v>228</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="G111" s="2">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="H111" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="I111" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>14</v>
+      </c>
+      <c r="B112" s="1">
+        <v>42379.674768518518</v>
+      </c>
+      <c r="C112">
+        <v>147045</v>
+      </c>
+      <c r="D112" t="s">
+        <v>230</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="G112" s="2">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="H112" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I112" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>15</v>
+      </c>
+      <c r="B113" s="1">
+        <v>42379.674432870372</v>
+      </c>
+      <c r="C113">
+        <v>30656</v>
+      </c>
+      <c r="D113" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="H113" s="2">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>16</v>
+      </c>
+      <c r="B114" s="1">
+        <v>42379.673738425925</v>
+      </c>
+      <c r="C114">
+        <v>12118</v>
+      </c>
+      <c r="D114" t="s">
+        <v>234</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="G114" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>17</v>
+      </c>
+      <c r="B115" s="1">
+        <v>42379.673587962963</v>
+      </c>
+      <c r="C115">
+        <v>106655</v>
+      </c>
+      <c r="D115" t="s">
+        <v>236</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="G115" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>18</v>
+      </c>
+      <c r="B116" s="1">
+        <v>42379.673402777778</v>
+      </c>
+      <c r="C116">
+        <v>12594</v>
+      </c>
+      <c r="D116" t="s">
+        <v>238</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1</v>
+      </c>
+      <c r="F116" s="2">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="G116" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H116" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>19</v>
+      </c>
+      <c r="B117" s="1">
+        <v>42379.672581018516</v>
+      </c>
+      <c r="C117">
+        <v>13340</v>
+      </c>
+      <c r="D117" t="s">
+        <v>240</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G117" s="2">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="H117" s="2">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="I117" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>20</v>
+      </c>
+      <c r="B118" s="1">
+        <v>42379.671689814815</v>
+      </c>
+      <c r="C118">
+        <v>74292</v>
+      </c>
+      <c r="D118" t="s">
+        <v>242</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1</v>
+      </c>
+      <c r="F118" s="2">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="G118" s="2">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="H118" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I118" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1">
+        <v>42379.691064814811</v>
+      </c>
+      <c r="C119">
+        <v>152414</v>
+      </c>
+      <c r="D119" t="s">
+        <v>244</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="G119" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="H119" s="2">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="I119" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" s="1">
+        <v>42379.690474537034</v>
+      </c>
+      <c r="C120">
+        <v>94877</v>
+      </c>
+      <c r="D120" t="s">
+        <v>246</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="G120" s="2">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="H120" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="I120" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121" s="1">
+        <v>42379.689791666664</v>
+      </c>
+      <c r="C121">
+        <v>32750</v>
+      </c>
+      <c r="D121" t="s">
+        <v>248</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="G121" s="2">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="H121" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I121" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1">
+        <v>42379.688726851855</v>
+      </c>
+      <c r="C122">
+        <v>22204</v>
+      </c>
+      <c r="D122" t="s">
+        <v>250</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="G122" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H122" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="I122" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123" s="1">
+        <v>42379.688344907408</v>
+      </c>
+      <c r="C123">
+        <v>60650</v>
+      </c>
+      <c r="D123" t="s">
+        <v>252</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1</v>
+      </c>
+      <c r="F123" s="2">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="G123" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H123" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I123" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124" s="1">
+        <v>42379.688078703701</v>
+      </c>
+      <c r="C124">
+        <v>55735</v>
+      </c>
+      <c r="D124" t="s">
+        <v>254</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" s="2">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="G124" s="2">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="H124" s="2">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="I124" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>7</v>
+      </c>
+      <c r="B125" s="1">
+        <v>42379.687280092592</v>
+      </c>
+      <c r="C125">
+        <v>144878</v>
+      </c>
+      <c r="D125" t="s">
+        <v>256</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1</v>
+      </c>
+      <c r="F125" s="2">
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="G125" s="2">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="H125" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I125" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>42379.686064814814</v>
+      </c>
+      <c r="C126">
+        <v>152056</v>
+      </c>
+      <c r="D126" t="s">
+        <v>258</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G126" s="2">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H126" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="I126" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>9</v>
+      </c>
+      <c r="B127" s="1">
+        <v>42379.685347222221</v>
+      </c>
+      <c r="C127">
+        <v>61944</v>
+      </c>
+      <c r="D127" t="s">
+        <v>260</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127" s="2">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="G127" s="2">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="H127" s="2">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" s="1">
+        <v>42380.817395833335</v>
+      </c>
+      <c r="C128">
+        <v>101720</v>
+      </c>
+      <c r="D128" t="s">
+        <v>262</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128" s="2">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="G128" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H128" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I128" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1">
+        <v>42380.81726851852</v>
+      </c>
+      <c r="C129">
+        <v>50423</v>
+      </c>
+      <c r="D129" t="s">
+        <v>264</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1</v>
+      </c>
+      <c r="F129" s="2">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="G129" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H129" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I129" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3</v>
+      </c>
+      <c r="B130" s="1">
+        <v>42380.816423611112</v>
+      </c>
+      <c r="C130">
+        <v>51856</v>
+      </c>
+      <c r="D130" t="s">
+        <v>266</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1</v>
+      </c>
+      <c r="F130" s="2">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="G130" s="2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>4</v>
+      </c>
+      <c r="B131" s="1">
+        <v>42380.815752314818</v>
+      </c>
+      <c r="C131">
+        <v>61797</v>
+      </c>
+      <c r="D131" t="s">
+        <v>268</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1</v>
+      </c>
+      <c r="F131" s="2">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="G131" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132" s="1">
+        <v>42380.815555555557</v>
+      </c>
+      <c r="C132">
+        <v>154733</v>
+      </c>
+      <c r="D132" t="s">
+        <v>270</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" s="2">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="G132" s="2">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="H132" s="2">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="I132" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133" s="1">
+        <v>42380.814849537041</v>
+      </c>
+      <c r="C133">
+        <v>77005</v>
+      </c>
+      <c r="D133" t="s">
+        <v>272</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1</v>
+      </c>
+      <c r="F133" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="G133" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="H133" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I133" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134" s="1">
+        <v>42380.814722222225</v>
+      </c>
+      <c r="C134">
+        <v>145214</v>
+      </c>
+      <c r="D134" t="s">
+        <v>274</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1</v>
+      </c>
+      <c r="F134" s="2">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="G134" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="H134" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I134" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>8</v>
+      </c>
+      <c r="B135" s="1">
+        <v>42380.814282407409</v>
+      </c>
+      <c r="C135">
+        <v>30236</v>
+      </c>
+      <c r="D135" t="s">
+        <v>276</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="G135" s="2">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="H135" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I135" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>9</v>
+      </c>
+      <c r="B136" s="1">
+        <v>42380.813842592594</v>
+      </c>
+      <c r="C136">
+        <v>76386</v>
+      </c>
+      <c r="D136" t="s">
+        <v>278</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136" s="2">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="G136" s="2">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>10</v>
+      </c>
+      <c r="B137" s="1">
+        <v>42380.813020833331</v>
+      </c>
+      <c r="C137">
+        <v>53983</v>
+      </c>
+      <c r="D137" t="s">
+        <v>280</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" s="2">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="G137" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H137" s="2">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>11</v>
+      </c>
+      <c r="B138" s="1">
+        <v>42380.812488425923</v>
+      </c>
+      <c r="C138">
+        <v>29936</v>
+      </c>
+      <c r="D138" t="s">
+        <v>282</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" s="2">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="G138" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H138" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I138" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>12</v>
+      </c>
+      <c r="B139" s="1">
+        <v>42380.811562499999</v>
+      </c>
+      <c r="C139">
+        <v>160507</v>
+      </c>
+      <c r="D139" t="s">
+        <v>284</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139" s="2">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="G139" s="2">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1">
+        <v>42380.811215277776</v>
+      </c>
+      <c r="C140">
+        <v>77276</v>
+      </c>
+      <c r="D140" t="s">
+        <v>286</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1</v>
+      </c>
+      <c r="F140" s="2">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="G140" s="2">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="H140" s="2">
+        <v>0</v>
+      </c>
+      <c r="I140" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>14</v>
+      </c>
+      <c r="B141" s="1">
+        <v>42380.810277777775</v>
+      </c>
+      <c r="C141">
+        <v>48866</v>
+      </c>
+      <c r="D141" t="s">
+        <v>288</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" s="2">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="H141" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="I141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>15</v>
+      </c>
+      <c r="B142" s="1">
+        <v>42380.807060185187</v>
+      </c>
+      <c r="C142">
+        <v>57448</v>
+      </c>
+      <c r="D142" t="s">
+        <v>104</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142" s="2">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="G142" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="H142" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I142" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>16</v>
+      </c>
+      <c r="B143" s="1">
+        <v>42380.806770833333</v>
+      </c>
+      <c r="C143">
+        <v>50250</v>
+      </c>
+      <c r="D143" t="s">
+        <v>291</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1</v>
+      </c>
+      <c r="F143" s="2">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="G143" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="H143" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I143" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>17</v>
+      </c>
+      <c r="B144" s="1">
+        <v>42380.806574074071</v>
+      </c>
+      <c r="C144">
+        <v>105474</v>
+      </c>
+      <c r="D144" t="s">
+        <v>293</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1</v>
+      </c>
+      <c r="F144" s="2">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="G144" s="2">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H144" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I144" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>18</v>
+      </c>
+      <c r="B145" s="1">
+        <v>42380.805960648147</v>
+      </c>
+      <c r="C145">
+        <v>49706</v>
+      </c>
+      <c r="D145" t="s">
+        <v>295</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" s="2">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="G145" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H145" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I145" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>19</v>
+      </c>
+      <c r="B146" s="1">
+        <v>42380.805439814816</v>
+      </c>
+      <c r="C146">
+        <v>48875</v>
+      </c>
+      <c r="D146" t="s">
+        <v>90</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146" s="2">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="G146" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H146" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I146" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>20</v>
+      </c>
+      <c r="B147" s="1">
+        <v>42380.805231481485</v>
+      </c>
+      <c r="C147">
+        <v>50956</v>
+      </c>
+      <c r="D147" t="s">
+        <v>298</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147" s="2">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="G147" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="H147" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I147" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>21</v>
+      </c>
+      <c r="B148" s="1">
+        <v>42380.805104166669</v>
+      </c>
+      <c r="C148">
+        <v>91942</v>
+      </c>
+      <c r="D148" t="s">
+        <v>300</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1</v>
+      </c>
+      <c r="F148" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G148" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H148" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I148" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>22</v>
+      </c>
+      <c r="B149" s="1">
+        <v>42380.804085648146</v>
+      </c>
+      <c r="C149">
+        <v>75014</v>
+      </c>
+      <c r="D149" t="s">
+        <v>302</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1</v>
+      </c>
+      <c r="F149" s="2">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="G149" s="2">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0</v>
+      </c>
+      <c r="I149" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>23</v>
+      </c>
+      <c r="B150" s="1">
+        <v>42380.801435185182</v>
+      </c>
+      <c r="C150">
+        <v>63266</v>
+      </c>
+      <c r="D150" t="s">
+        <v>304</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1</v>
+      </c>
+      <c r="F150" s="2">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="G150" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="H150" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I150" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>24</v>
+      </c>
+      <c r="B151" s="1">
+        <v>42380.801099537035</v>
+      </c>
+      <c r="C151">
+        <v>151838</v>
+      </c>
+      <c r="D151" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1</v>
+      </c>
+      <c r="F151" s="2">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="G151" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H151" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I151" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>25</v>
+      </c>
+      <c r="B152" s="1">
+        <v>42380.800729166665</v>
+      </c>
+      <c r="C152">
+        <v>156518</v>
+      </c>
+      <c r="D152" t="s">
+        <v>307</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152" s="2">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="G152" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="H152" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I152" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>26</v>
+      </c>
+      <c r="B153" s="1">
+        <v>42380.800428240742</v>
+      </c>
+      <c r="C153">
+        <v>146875</v>
+      </c>
+      <c r="D153" t="s">
+        <v>309</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153" s="2">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="G153" s="2">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="H153" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="I153" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>27</v>
+      </c>
+      <c r="B154" s="1">
+        <v>42380.799328703702</v>
+      </c>
+      <c r="C154">
+        <v>143504</v>
+      </c>
+      <c r="D154" t="s">
+        <v>311</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1</v>
+      </c>
+      <c r="F154" s="2">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="G154" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="H154" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="I154" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>28</v>
+      </c>
+      <c r="B155" s="1">
+        <v>42380.798993055556</v>
+      </c>
+      <c r="C155">
+        <v>53251</v>
+      </c>
+      <c r="D155" t="s">
+        <v>313</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1</v>
+      </c>
+      <c r="F155" s="2">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="G155" s="2">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="H155" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I155" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>29</v>
+      </c>
+      <c r="B156" s="1">
+        <v>42380.798356481479</v>
+      </c>
+      <c r="C156">
+        <v>71635</v>
+      </c>
+      <c r="D156" t="s">
+        <v>315</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1</v>
+      </c>
+      <c r="F156" s="2">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="G156" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H156" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="I156" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>30</v>
+      </c>
+      <c r="B157" s="1">
+        <v>42380.798055555555</v>
+      </c>
+      <c r="C157">
+        <v>92479</v>
+      </c>
+      <c r="D157" t="s">
+        <v>317</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157" s="2">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="G157" s="2">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="H157" s="2">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="I157" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>31</v>
+      </c>
+      <c r="B158" s="1">
+        <v>42380.797534722224</v>
+      </c>
+      <c r="C158">
+        <v>80276</v>
+      </c>
+      <c r="D158" t="s">
+        <v>319</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1</v>
+      </c>
+      <c r="F158" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="G158" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="H158" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I158" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>32</v>
+      </c>
+      <c r="B159" s="1">
+        <v>42380.797349537039</v>
+      </c>
+      <c r="C159">
+        <v>166447</v>
+      </c>
+      <c r="D159" t="s">
+        <v>321</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="H159" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I159" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160" s="1">
+        <v>42381.800335648149</v>
+      </c>
+      <c r="C160">
+        <v>100618</v>
+      </c>
+      <c r="D160" t="s">
+        <v>323</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1</v>
+      </c>
+      <c r="F160" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="G160" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H160" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="I160" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161" s="1">
+        <v>42381.79991898148</v>
+      </c>
+      <c r="C161">
+        <v>44155</v>
+      </c>
+      <c r="D161" t="s">
+        <v>325</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1</v>
+      </c>
+      <c r="F161" s="2">
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="G161" s="2">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="H161" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I161" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3</v>
+      </c>
+      <c r="B162" s="1">
+        <v>42381.798368055555</v>
+      </c>
+      <c r="C162">
+        <v>2910</v>
+      </c>
+      <c r="D162" t="s">
+        <v>327</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1</v>
+      </c>
+      <c r="F162" s="2">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="G162" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0</v>
+      </c>
+      <c r="I162" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>4</v>
+      </c>
+      <c r="B163" s="1">
+        <v>42381.79792824074</v>
+      </c>
+      <c r="C163">
+        <v>47291</v>
+      </c>
+      <c r="D163" t="s">
+        <v>329</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1</v>
+      </c>
+      <c r="F163" s="2">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="G163" s="2">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0</v>
+      </c>
+      <c r="I163" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>5</v>
+      </c>
+      <c r="B164" s="1">
+        <v>42381.797256944446</v>
+      </c>
+      <c r="C164">
+        <v>62907</v>
+      </c>
+      <c r="D164" t="s">
+        <v>154</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1</v>
+      </c>
+      <c r="F164" s="2">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="G164" s="2">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0</v>
+      </c>
+      <c r="I164" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>6</v>
+      </c>
+      <c r="B165" s="1">
+        <v>42381.795949074076</v>
+      </c>
+      <c r="C165">
+        <v>80611</v>
+      </c>
+      <c r="D165" t="s">
+        <v>332</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1</v>
+      </c>
+      <c r="F165" s="2">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="G165" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0</v>
+      </c>
+      <c r="I165" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="1">
+        <v>42381.79546296296</v>
+      </c>
+      <c r="C166">
+        <v>30765</v>
+      </c>
+      <c r="D166" t="s">
+        <v>334</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1</v>
+      </c>
+      <c r="F166" s="2">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="G166" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0</v>
+      </c>
+      <c r="I166" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>8</v>
+      </c>
+      <c r="B167" s="1">
+        <v>42381.795104166667</v>
+      </c>
+      <c r="C167">
+        <v>58865</v>
+      </c>
+      <c r="D167" t="s">
+        <v>336</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1</v>
+      </c>
+      <c r="F167" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="G167" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>9</v>
+      </c>
+      <c r="B168" s="1">
+        <v>42381.794699074075</v>
+      </c>
+      <c r="C168">
+        <v>102955</v>
+      </c>
+      <c r="D168" t="s">
+        <v>338</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1</v>
+      </c>
+      <c r="F168" s="2">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="G168" s="2">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>10</v>
+      </c>
+      <c r="B169" s="1">
+        <v>42381.793912037036</v>
+      </c>
+      <c r="C169">
+        <v>43144</v>
+      </c>
+      <c r="D169" t="s">
+        <v>340</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1</v>
+      </c>
+      <c r="F169" s="2">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="G169" s="2">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0</v>
+      </c>
+      <c r="I169" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>11</v>
+      </c>
+      <c r="B170" s="1">
+        <v>42381.793206018519</v>
+      </c>
+      <c r="C170">
+        <v>74206</v>
+      </c>
+      <c r="D170" t="s">
+        <v>342</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1</v>
+      </c>
+      <c r="F170" s="2">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="G170" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>12</v>
+      </c>
+      <c r="B171" s="1">
+        <v>42381.792500000003</v>
+      </c>
+      <c r="C171">
+        <v>156478</v>
+      </c>
+      <c r="D171" t="s">
+        <v>344</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1</v>
+      </c>
+      <c r="F171" s="2">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="G171" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="H171" s="2">
+        <v>0</v>
+      </c>
+      <c r="I171" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>13</v>
+      </c>
+      <c r="B172" s="1">
+        <v>42381.792326388888</v>
+      </c>
+      <c r="C172">
+        <v>141487</v>
+      </c>
+      <c r="D172" t="s">
+        <v>346</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1</v>
+      </c>
+      <c r="F172" s="2">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="G172" s="2">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="H172" s="2">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="I172" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>14</v>
+      </c>
+      <c r="B173" s="1">
+        <v>42381.790416666663</v>
+      </c>
+      <c r="C173">
+        <v>52747</v>
+      </c>
+      <c r="D173" t="s">
+        <v>348</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1</v>
+      </c>
+      <c r="F173" s="2">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="G173" s="2">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="H173" s="2">
+        <v>0</v>
+      </c>
+      <c r="I173" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>15</v>
+      </c>
+      <c r="B174" s="1">
+        <v>42381.78979166667</v>
+      </c>
+      <c r="C174">
+        <v>143019</v>
+      </c>
+      <c r="D174" t="s">
+        <v>350</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1</v>
+      </c>
+      <c r="F174" s="2">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="G174" s="2">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="H174" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I174" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>16</v>
+      </c>
+      <c r="B175" s="1">
+        <v>42381.789305555554</v>
+      </c>
+      <c r="C175">
+        <v>75221</v>
+      </c>
+      <c r="D175" t="s">
+        <v>352</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1</v>
+      </c>
+      <c r="F175" s="2">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G175" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H175" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I175" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>17</v>
+      </c>
+      <c r="B176" s="1">
+        <v>42381.789097222223</v>
+      </c>
+      <c r="C176">
+        <v>7599</v>
+      </c>
+      <c r="D176" t="s">
+        <v>354</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176" s="2">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="G176" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="H176" s="2">
+        <v>0</v>
+      </c>
+      <c r="I176" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>18</v>
+      </c>
+      <c r="B177" s="1">
+        <v>42381.788854166669</v>
+      </c>
+      <c r="C177">
+        <v>63707</v>
+      </c>
+      <c r="D177" t="s">
+        <v>356</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1</v>
+      </c>
+      <c r="F177" s="2">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="G177" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H177" s="2">
+        <v>0</v>
+      </c>
+      <c r="I177" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>19</v>
+      </c>
+      <c r="B178" s="1">
+        <v>42381.788553240738</v>
+      </c>
+      <c r="C178">
+        <v>140083</v>
+      </c>
+      <c r="D178" t="s">
+        <v>358</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1</v>
+      </c>
+      <c r="F178" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G178" s="2">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H178" s="2">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="I178" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>20</v>
+      </c>
+      <c r="B179" s="1">
+        <v>42381.787800925929</v>
+      </c>
+      <c r="C179">
+        <v>149295</v>
+      </c>
+      <c r="D179" t="s">
+        <v>360</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1</v>
+      </c>
+      <c r="F179" s="2">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="G179" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="H179" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I179" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>21</v>
+      </c>
+      <c r="B180" s="1">
+        <v>42381.787592592591</v>
+      </c>
+      <c r="C180">
+        <v>60370</v>
+      </c>
+      <c r="D180" t="s">
+        <v>362</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1</v>
+      </c>
+      <c r="F180" s="2">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="G180" s="2">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="H180" s="2">
+        <v>0</v>
+      </c>
+      <c r="I180" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>22</v>
+      </c>
+      <c r="B181" s="1">
+        <v>42381.785011574073</v>
+      </c>
+      <c r="C181">
+        <v>76356</v>
+      </c>
+      <c r="D181" t="s">
+        <v>364</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1</v>
+      </c>
+      <c r="F181" s="2">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="G181" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H181" s="2">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="I181" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>23</v>
+      </c>
+      <c r="B182" s="1">
+        <v>42381.784224537034</v>
+      </c>
+      <c r="C182">
+        <v>6744</v>
+      </c>
+      <c r="D182" t="s">
+        <v>366</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1</v>
+      </c>
+      <c r="F182" s="2">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="G182" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0</v>
+      </c>
+      <c r="I182" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>24</v>
+      </c>
+      <c r="B183" s="1">
+        <v>42381.783530092594</v>
+      </c>
+      <c r="C183">
+        <v>152634</v>
+      </c>
+      <c r="D183" t="s">
+        <v>368</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1</v>
+      </c>
+      <c r="F183" s="2">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="G183" s="2">
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="H183" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I183" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>25</v>
+      </c>
+      <c r="B184" s="1">
+        <v>42381.782511574071</v>
+      </c>
+      <c r="C184">
+        <v>155050</v>
+      </c>
+      <c r="D184" t="s">
+        <v>370</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1</v>
+      </c>
+      <c r="F184" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G184" s="2">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="H184" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I184" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>26</v>
+      </c>
+      <c r="B185" s="1">
+        <v>42381.781990740739</v>
+      </c>
+      <c r="C185">
+        <v>60569</v>
+      </c>
+      <c r="D185" t="s">
+        <v>372</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1</v>
+      </c>
+      <c r="F185" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G185" s="2">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="H185" s="2">
+        <v>0</v>
+      </c>
+      <c r="I185" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>27</v>
+      </c>
+      <c r="B186" s="1">
+        <v>42381.781157407408</v>
+      </c>
+      <c r="C186">
+        <v>142451</v>
+      </c>
+      <c r="D186" t="s">
+        <v>374</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1</v>
+      </c>
+      <c r="F186" s="2">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="G186" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H186" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I186" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>28</v>
+      </c>
+      <c r="B187" s="1">
+        <v>42381.780856481484</v>
+      </c>
+      <c r="C187">
+        <v>40334</v>
+      </c>
+      <c r="D187" t="s">
+        <v>376</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1</v>
+      </c>
+      <c r="F187" s="2">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="G187" s="2">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="H187" s="2">
+        <v>0</v>
+      </c>
+      <c r="I187" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>29</v>
+      </c>
+      <c r="B188" s="1">
+        <v>42381.778715277775</v>
+      </c>
+      <c r="C188">
+        <v>62237</v>
+      </c>
+      <c r="D188" t="s">
+        <v>378</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1</v>
+      </c>
+      <c r="F188" s="2">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="G188" s="2">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="H188" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I188" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>30</v>
+      </c>
+      <c r="B189" s="1">
+        <v>42381.778449074074</v>
+      </c>
+      <c r="C189">
+        <v>63934</v>
+      </c>
+      <c r="D189" t="s">
+        <v>380</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1</v>
+      </c>
+      <c r="F189" s="2">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="G189" s="2">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="H189" s="2">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="I189" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>31</v>
+      </c>
+      <c r="B190" s="1">
+        <v>42381.776921296296</v>
+      </c>
+      <c r="C190">
+        <v>63812</v>
+      </c>
+      <c r="D190" t="s">
+        <v>382</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1</v>
+      </c>
+      <c r="F190" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G190" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="H190" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I190" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>32</v>
+      </c>
+      <c r="B191" s="1">
+        <v>42381.776342592595</v>
+      </c>
+      <c r="C191">
+        <v>44213</v>
+      </c>
+      <c r="D191" t="s">
+        <v>384</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1</v>
+      </c>
+      <c r="F191" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="G191" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="H191" s="2">
+        <v>0</v>
+      </c>
+      <c r="I191" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>33</v>
+      </c>
+      <c r="B192" s="1">
+        <v>42381.775740740741</v>
+      </c>
+      <c r="C192">
+        <v>93042</v>
+      </c>
+      <c r="D192" t="s">
+        <v>386</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1</v>
+      </c>
+      <c r="F192" s="2">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="G192" s="2">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="H192" s="2">
+        <v>0</v>
+      </c>
+      <c r="I192" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>34</v>
+      </c>
+      <c r="B193" s="1">
+        <v>42381.774236111109</v>
+      </c>
+      <c r="C193">
+        <v>166774</v>
+      </c>
+      <c r="D193" t="s">
+        <v>388</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1</v>
+      </c>
+      <c r="F193" s="2">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="G193" s="2">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="H193" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I193" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>35</v>
+      </c>
+      <c r="B194" s="1">
+        <v>42381.772349537037</v>
+      </c>
+      <c r="C194">
+        <v>54138</v>
+      </c>
+      <c r="D194" t="s">
+        <v>390</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1</v>
+      </c>
+      <c r="F194" s="2">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="G194" s="2">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="H194" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I194" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>36</v>
+      </c>
+      <c r="B195" s="1">
+        <v>42381.771296296298</v>
+      </c>
+      <c r="C195">
+        <v>76334</v>
+      </c>
+      <c r="D195" t="s">
+        <v>392</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1</v>
+      </c>
+      <c r="F195" s="2">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="G195" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H195" s="2">
+        <v>0</v>
+      </c>
+      <c r="I195" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>37</v>
+      </c>
+      <c r="B196" s="1">
+        <v>42381.771064814813</v>
+      </c>
+      <c r="C196">
+        <v>164680</v>
+      </c>
+      <c r="D196" t="s">
+        <v>394</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1</v>
+      </c>
+      <c r="F196" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="G196" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="H196" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="I196" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>38</v>
+      </c>
+      <c r="B197" s="1">
+        <v>42381.77034722222</v>
+      </c>
+      <c r="C197">
+        <v>46725</v>
+      </c>
+      <c r="D197" t="s">
+        <v>396</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1</v>
+      </c>
+      <c r="F197" s="2">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="G197" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H197" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I197" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>39</v>
+      </c>
+      <c r="B198" s="1">
+        <v>42381.769780092596</v>
+      </c>
+      <c r="C198">
+        <v>94024</v>
+      </c>
+      <c r="D198" t="s">
+        <v>242</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1</v>
+      </c>
+      <c r="F198" s="2">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="G198" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="H198" s="2">
+        <v>0</v>
+      </c>
+      <c r="I198" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>40</v>
+      </c>
+      <c r="B199" s="1">
+        <v>42381.765717592592</v>
+      </c>
+      <c r="C199">
+        <v>44961</v>
+      </c>
+      <c r="D199" t="s">
+        <v>399</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1</v>
+      </c>
+      <c r="F199" s="2">
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="G199" s="2">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="H199" s="2">
+        <v>0</v>
+      </c>
+      <c r="I199" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>41</v>
+      </c>
+      <c r="B200" s="1">
+        <v>42381.764409722222</v>
+      </c>
+      <c r="C200">
+        <v>161088</v>
+      </c>
+      <c r="D200" t="s">
+        <v>401</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1</v>
+      </c>
+      <c r="F200" s="2">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="G200" s="2">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H200" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I200" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>42</v>
+      </c>
+      <c r="B201" s="1">
+        <v>42381.763645833336</v>
+      </c>
+      <c r="C201">
+        <v>149000</v>
+      </c>
+      <c r="D201" t="s">
+        <v>403</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1</v>
+      </c>
+      <c r="F201" s="2">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="G201" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="H201" s="2">
+        <v>0.17847222222222223</v>
+      </c>
+      <c r="I201" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>43</v>
+      </c>
+      <c r="B202" s="1">
+        <v>42381.760104166664</v>
+      </c>
+      <c r="C202">
+        <v>155082</v>
+      </c>
+      <c r="D202" t="s">
+        <v>405</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1</v>
+      </c>
+      <c r="F202" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G202" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="H202" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I202" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>44</v>
+      </c>
+      <c r="B203" s="1">
+        <v>42381.759930555556</v>
+      </c>
+      <c r="C203">
+        <v>162062</v>
+      </c>
+      <c r="D203" t="s">
+        <v>170</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1</v>
+      </c>
+      <c r="F203" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="G203" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H203" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I203" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>45</v>
+      </c>
+      <c r="B204" s="1">
+        <v>42381.759502314817</v>
+      </c>
+      <c r="C204">
+        <v>166701</v>
+      </c>
+      <c r="D204" t="s">
+        <v>408</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1</v>
+      </c>
+      <c r="F204" s="2">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="G204" s="2">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="H204" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="I204" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>46</v>
+      </c>
+      <c r="B205" s="1">
+        <v>42381.758819444447</v>
+      </c>
+      <c r="C205">
+        <v>14773</v>
+      </c>
+      <c r="D205" t="s">
+        <v>410</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1</v>
+      </c>
+      <c r="F205" s="2">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="G205" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="H205" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I205" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>47</v>
+      </c>
+      <c r="B206" s="1">
+        <v>42381.758171296293</v>
+      </c>
+      <c r="C206">
+        <v>105077</v>
+      </c>
+      <c r="D206" t="s">
+        <v>405</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1</v>
+      </c>
+      <c r="F206" s="2">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="G206" s="2">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="H206" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I206" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207" s="1">
+        <v>42388.869780092595</v>
+      </c>
+      <c r="C207">
+        <v>79951</v>
+      </c>
+      <c r="D207" t="s">
+        <v>413</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1</v>
+      </c>
+      <c r="F207" s="2">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="G207" s="2">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="H207" s="2">
+        <v>0</v>
+      </c>
+      <c r="I207" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" s="1">
+        <v>42388.867592592593</v>
+      </c>
+      <c r="C208">
+        <v>57383</v>
+      </c>
+      <c r="D208" t="s">
+        <v>415</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1</v>
+      </c>
+      <c r="F208" s="2">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="G208" s="2">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="H208" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I208" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>3</v>
+      </c>
+      <c r="B209" s="1">
+        <v>42388.867060185185</v>
+      </c>
+      <c r="C209">
+        <v>102934</v>
+      </c>
+      <c r="D209" t="s">
+        <v>417</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1</v>
+      </c>
+      <c r="F209" s="2">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="G209" s="2">
+        <v>0.63263888888888886</v>
+      </c>
+      <c r="H209" s="2">
+        <v>0</v>
+      </c>
+      <c r="I209" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>4</v>
+      </c>
+      <c r="B210" s="1">
+        <v>42388.856481481482</v>
+      </c>
+      <c r="C210">
+        <v>28461</v>
+      </c>
+      <c r="D210" t="s">
+        <v>419</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1</v>
+      </c>
+      <c r="F210" s="2">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="G210" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="H210" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I210" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>5</v>
+      </c>
+      <c r="B211" s="1">
+        <v>42388.856134259258</v>
+      </c>
+      <c r="C211">
+        <v>31647</v>
+      </c>
+      <c r="D211" t="s">
+        <v>421</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1</v>
+      </c>
+      <c r="F211" s="2">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="G211" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H211" s="2">
+        <v>0</v>
+      </c>
+      <c r="I211" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>6</v>
+      </c>
+      <c r="B212" s="1">
+        <v>42388.855624999997</v>
+      </c>
+      <c r="C212">
+        <v>59577</v>
+      </c>
+      <c r="D212" t="s">
+        <v>423</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1</v>
+      </c>
+      <c r="F212" s="2">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="G212" s="2">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="H212" s="2">
+        <v>0</v>
+      </c>
+      <c r="I212" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>7</v>
+      </c>
+      <c r="B213" s="1">
+        <v>42388.854537037034</v>
+      </c>
+      <c r="C213">
+        <v>164229</v>
+      </c>
+      <c r="D213" t="s">
+        <v>425</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1</v>
+      </c>
+      <c r="F213" s="2">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="G213" s="2">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="H213" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I213" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>8</v>
+      </c>
+      <c r="B214" s="1">
+        <v>42388.854074074072</v>
+      </c>
+      <c r="C214">
+        <v>154544</v>
+      </c>
+      <c r="D214" t="s">
+        <v>427</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1</v>
+      </c>
+      <c r="F214" s="2">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="G214" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="H214" s="2">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="I214" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>9</v>
+      </c>
+      <c r="B215" s="1">
+        <v>42388.843506944446</v>
+      </c>
+      <c r="C215">
+        <v>163085</v>
+      </c>
+      <c r="D215" t="s">
+        <v>429</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1</v>
+      </c>
+      <c r="F215" s="2">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="G215" s="2">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="H215" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="I215" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>10</v>
+      </c>
+      <c r="B216" s="1">
+        <v>42388.84306712963</v>
+      </c>
+      <c r="C216">
+        <v>151202</v>
+      </c>
+      <c r="D216" t="s">
+        <v>431</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1</v>
+      </c>
+      <c r="F216" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G216" s="2">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="H216" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I216" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>11</v>
+      </c>
+      <c r="B217" s="1">
+        <v>42388.84207175926</v>
+      </c>
+      <c r="C217">
+        <v>74946</v>
+      </c>
+      <c r="D217" t="s">
+        <v>433</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1</v>
+      </c>
+      <c r="F217" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G217" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H217" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I217" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>12</v>
+      </c>
+      <c r="B218" s="1">
+        <v>42388.841898148145</v>
+      </c>
+      <c r="C218">
+        <v>80262</v>
+      </c>
+      <c r="D218" t="s">
+        <v>354</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1</v>
+      </c>
+      <c r="F218" s="2">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="G218" s="2">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="H218" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I218" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>13</v>
+      </c>
+      <c r="B219" s="1">
+        <v>42388.840833333335</v>
+      </c>
+      <c r="C219">
+        <v>72422</v>
+      </c>
+      <c r="D219" t="s">
+        <v>436</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1</v>
+      </c>
+      <c r="F219" s="2">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="G219" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H219" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I219" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>14</v>
+      </c>
+      <c r="B220" s="1">
+        <v>42388.840601851851</v>
+      </c>
+      <c r="C220">
+        <v>158474</v>
+      </c>
+      <c r="D220" t="s">
+        <v>122</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1</v>
+      </c>
+      <c r="F220" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="G220" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="H220" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I220" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>15</v>
+      </c>
+      <c r="B221" s="1">
+        <v>42388.84039351852</v>
+      </c>
+      <c r="C221">
+        <v>53632</v>
+      </c>
+      <c r="D221" t="s">
+        <v>329</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1</v>
+      </c>
+      <c r="F221" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="G221" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="H221" s="2">
+        <v>0</v>
+      </c>
+      <c r="I221" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>16</v>
+      </c>
+      <c r="B222" s="1">
+        <v>42388.839872685188</v>
+      </c>
+      <c r="C222">
+        <v>93336</v>
+      </c>
+      <c r="D222" t="s">
+        <v>440</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1</v>
+      </c>
+      <c r="F222" s="2">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="G222" s="2">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="H222" s="2">
+        <v>0</v>
+      </c>
+      <c r="I222" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>17</v>
+      </c>
+      <c r="B223" s="1">
+        <v>42388.839259259257</v>
+      </c>
+      <c r="C223">
+        <v>52389</v>
+      </c>
+      <c r="D223" t="s">
+        <v>264</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1</v>
+      </c>
+      <c r="F223" s="2">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="G223" s="2">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="H223" s="2">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="I223" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>18</v>
+      </c>
+      <c r="B224" s="1">
+        <v>42388.838553240741</v>
+      </c>
+      <c r="C224">
+        <v>56199</v>
+      </c>
+      <c r="D224" t="s">
+        <v>443</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1</v>
+      </c>
+      <c r="F224" s="2">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="G224" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="H224" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I224" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>19</v>
+      </c>
+      <c r="B225" s="1">
+        <v>42388.83834490741</v>
+      </c>
+      <c r="C225">
+        <v>64955</v>
+      </c>
+      <c r="D225" t="s">
+        <v>445</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1</v>
+      </c>
+      <c r="F225" s="2">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="G225" s="2">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="H225" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I225" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>20</v>
+      </c>
+      <c r="B226" s="1">
+        <v>42388.836643518516</v>
+      </c>
+      <c r="C226">
+        <v>79523</v>
+      </c>
+      <c r="D226" t="s">
+        <v>447</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1</v>
+      </c>
+      <c r="F226" s="2">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="G226" s="2">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="H226" s="2">
+        <v>0</v>
+      </c>
+      <c r="I226" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>21</v>
+      </c>
+      <c r="B227" s="1">
+        <v>42388.830694444441</v>
+      </c>
+      <c r="C227">
+        <v>59434</v>
+      </c>
+      <c r="D227" t="s">
+        <v>449</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1</v>
+      </c>
+      <c r="F227" s="2">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="G227" s="2">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="H227" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I227" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>22</v>
+      </c>
+      <c r="B228" s="1">
+        <v>42388.830231481479</v>
+      </c>
+      <c r="C228">
+        <v>24737</v>
+      </c>
+      <c r="D228" t="s">
+        <v>451</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1</v>
+      </c>
+      <c r="F228" s="2">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="G228" s="2">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="H228" s="2">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="I228" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>23</v>
+      </c>
+      <c r="B229" s="1">
+        <v>42385.705081018517</v>
+      </c>
+      <c r="C229">
+        <v>26214</v>
+      </c>
+      <c r="D229" t="s">
+        <v>453</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1</v>
+      </c>
+      <c r="F229" s="2">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="G229" s="2">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="H229" s="2">
+        <v>0</v>
+      </c>
+      <c r="I229" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>24</v>
+      </c>
+      <c r="B230" s="1">
+        <v>42385.704398148147</v>
+      </c>
+      <c r="C230">
+        <v>57810</v>
+      </c>
+      <c r="D230" t="s">
+        <v>455</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1</v>
+      </c>
+      <c r="F230" s="2">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="G230" s="2">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="H230" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="I230" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>25</v>
+      </c>
+      <c r="B231" s="1">
+        <v>42385.703125</v>
+      </c>
+      <c r="C231">
+        <v>73048</v>
+      </c>
+      <c r="D231" t="s">
+        <v>457</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1</v>
+      </c>
+      <c r="F231" s="2">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="G231" s="2">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="H231" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="I231" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>26</v>
+      </c>
+      <c r="B232" s="1">
+        <v>42385.702372685184</v>
+      </c>
+      <c r="C232">
+        <v>8100</v>
+      </c>
+      <c r="D232" t="s">
+        <v>362</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1</v>
+      </c>
+      <c r="F232" s="2">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G232" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="H232" s="2">
+        <v>0</v>
+      </c>
+      <c r="I232" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233" s="1">
+        <v>42738.475972222222</v>
+      </c>
+      <c r="C233">
+        <v>74004</v>
+      </c>
+      <c r="D233" t="s">
+        <v>460</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1</v>
+      </c>
+      <c r="F233" s="2">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="G233" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="H233" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I233" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="B234" s="1">
+        <v>42738.475659722222</v>
+      </c>
+      <c r="C234">
+        <v>13458</v>
+      </c>
+      <c r="D234" t="s">
+        <v>462</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1</v>
+      </c>
+      <c r="F234" s="2">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="G234" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H234" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I234" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>3</v>
+      </c>
+      <c r="B235" s="1">
+        <v>42738.474930555552</v>
+      </c>
+      <c r="C235">
+        <v>142426</v>
+      </c>
+      <c r="D235" t="s">
+        <v>464</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1</v>
+      </c>
+      <c r="F235" s="2">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="G235" s="2">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="H235" s="2">
+        <v>0</v>
+      </c>
+      <c r="I235" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>4</v>
+      </c>
+      <c r="B236" s="1">
+        <v>42738.474409722221</v>
+      </c>
+      <c r="C236">
+        <v>30431</v>
+      </c>
+      <c r="D236" t="s">
+        <v>466</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1</v>
+      </c>
+      <c r="F236" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G236" s="2">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="H236" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I236" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>5</v>
+      </c>
+      <c r="B237" s="1">
+        <v>42738.473425925928</v>
+      </c>
+      <c r="C237">
+        <v>92311</v>
+      </c>
+      <c r="D237" t="s">
+        <v>468</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1</v>
+      </c>
+      <c r="F237" s="2">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="G237" s="2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H237" s="2">
+        <v>0</v>
+      </c>
+      <c r="I237" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>6</v>
+      </c>
+      <c r="B238" s="1">
+        <v>42738.473090277781</v>
+      </c>
+      <c r="C238">
+        <v>167212</v>
+      </c>
+      <c r="D238" t="s">
+        <v>470</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1</v>
+      </c>
+      <c r="F238" s="2">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="G238" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="H238" s="2">
+        <v>0</v>
+      </c>
+      <c r="I238" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>7</v>
+      </c>
+      <c r="B239" s="1">
+        <v>42738.472928240742</v>
+      </c>
+      <c r="C239">
+        <v>165641</v>
+      </c>
+      <c r="D239" t="s">
+        <v>472</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1</v>
+      </c>
+      <c r="F239" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="G239" s="2">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="H239" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="I239" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>8</v>
+      </c>
+      <c r="B240" s="1">
+        <v>42738.472581018519</v>
+      </c>
+      <c r="C240">
+        <v>146662</v>
+      </c>
+      <c r="D240" t="s">
+        <v>474</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1</v>
+      </c>
+      <c r="F240" s="2">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="G240" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H240" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="I240" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>9</v>
+      </c>
+      <c r="B241" s="1">
+        <v>42738.47179398148</v>
+      </c>
+      <c r="C241">
+        <v>147134</v>
+      </c>
+      <c r="D241" t="s">
+        <v>476</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1</v>
+      </c>
+      <c r="F241" s="2">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="G241" s="2">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="H241" s="2">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I241" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>10</v>
+      </c>
+      <c r="B242" s="1">
+        <v>42738.470972222225</v>
+      </c>
+      <c r="C242">
+        <v>177091</v>
+      </c>
+      <c r="D242" t="s">
+        <v>478</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1</v>
+      </c>
+      <c r="F242" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="G242" s="2">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="H242" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I242" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>11</v>
+      </c>
+      <c r="B243" s="1">
+        <v>42738.470277777778</v>
+      </c>
+      <c r="C243">
+        <v>149107</v>
+      </c>
+      <c r="D243" t="s">
+        <v>480</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1</v>
+      </c>
+      <c r="F243" s="2">
+        <v>0.10902777777777778</v>
+      </c>
+      <c r="G243" s="2">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="H243" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I243" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>12</v>
+      </c>
+      <c r="B244" s="1">
+        <v>42738.469085648147</v>
+      </c>
+      <c r="C244">
+        <v>177220</v>
+      </c>
+      <c r="D244" t="s">
+        <v>482</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1</v>
+      </c>
+      <c r="F244" s="2">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="G244" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H244" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I244" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>13</v>
+      </c>
+      <c r="B245" s="1">
+        <v>42738.467974537038</v>
+      </c>
+      <c r="C245">
+        <v>172420</v>
+      </c>
+      <c r="D245" t="s">
+        <v>484</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1</v>
+      </c>
+      <c r="F245" s="2">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="G245" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="H245" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I245" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>14</v>
+      </c>
+      <c r="B246" s="1">
+        <v>42738.467789351853</v>
+      </c>
+      <c r="C246">
+        <v>44011</v>
+      </c>
+      <c r="D246" t="s">
+        <v>486</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1</v>
+      </c>
+      <c r="F246" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="G246" s="2">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H246" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I246" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>15</v>
+      </c>
+      <c r="B247" s="1">
+        <v>42738.46671296296</v>
+      </c>
+      <c r="C247">
+        <v>101597</v>
+      </c>
+      <c r="D247" t="s">
+        <v>488</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1</v>
+      </c>
+      <c r="F247" s="2">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="G247" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="H247" s="2">
+        <v>0</v>
+      </c>
+      <c r="I247" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248" s="1">
+        <v>42738.560104166667</v>
+      </c>
+      <c r="C248">
+        <v>57958</v>
+      </c>
+      <c r="D248" t="s">
+        <v>490</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1</v>
+      </c>
+      <c r="F248" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="G248" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H248" s="2">
+        <v>0</v>
+      </c>
+      <c r="I248" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2</v>
+      </c>
+      <c r="B249" s="1">
+        <v>42738.559652777774</v>
+      </c>
+      <c r="C249">
+        <v>156738</v>
+      </c>
+      <c r="D249" t="s">
+        <v>492</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1</v>
+      </c>
+      <c r="F249" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="G249" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H249" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I249" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>3</v>
+      </c>
+      <c r="B250" s="1">
+        <v>42738.559398148151</v>
+      </c>
+      <c r="C250">
+        <v>47752</v>
+      </c>
+      <c r="D250" t="s">
+        <v>494</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1</v>
+      </c>
+      <c r="F250" s="2">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="G250" s="2">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="H250" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I250" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>4</v>
+      </c>
+      <c r="B251" s="1">
+        <v>42738.558159722219</v>
+      </c>
+      <c r="C251">
+        <v>153087</v>
+      </c>
+      <c r="D251" t="s">
+        <v>496</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1</v>
+      </c>
+      <c r="F251" s="2">
+        <v>0.10902777777777778</v>
+      </c>
+      <c r="G251" s="2">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H251" s="2">
+        <v>0</v>
+      </c>
+      <c r="I251" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>5</v>
+      </c>
+      <c r="B252" s="1">
+        <v>42738.557013888887</v>
+      </c>
+      <c r="C252">
+        <v>40371</v>
+      </c>
+      <c r="D252" t="s">
+        <v>498</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1</v>
+      </c>
+      <c r="F252" s="2">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="G252" s="2">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="H252" s="2">
+        <v>0</v>
+      </c>
+      <c r="I252" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>6</v>
+      </c>
+      <c r="B253" s="1">
+        <v>42738.556400462963</v>
+      </c>
+      <c r="C253">
+        <v>155958</v>
+      </c>
+      <c r="D253" t="s">
+        <v>500</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1</v>
+      </c>
+      <c r="F253" s="2">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="G253" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H253" s="2">
+        <v>0</v>
+      </c>
+      <c r="I253" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>7</v>
+      </c>
+      <c r="B254" s="1">
+        <v>42738.556076388886</v>
+      </c>
+      <c r="C254">
+        <v>19787</v>
+      </c>
+      <c r="D254" t="s">
+        <v>502</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1</v>
+      </c>
+      <c r="F254" s="2">
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="G254" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H254" s="2">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="I254" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>8</v>
+      </c>
+      <c r="B255" s="1">
+        <v>42738.554293981484</v>
+      </c>
+      <c r="C255">
+        <v>63003</v>
+      </c>
+      <c r="D255" t="s">
+        <v>504</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1</v>
+      </c>
+      <c r="F255" s="2">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="G255" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="H255" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I255" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256" s="1">
+        <v>42738.581446759257</v>
+      </c>
+      <c r="C256">
+        <v>158744</v>
+      </c>
+      <c r="D256" t="s">
+        <v>506</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1</v>
+      </c>
+      <c r="F256" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="G256" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="H256" s="2">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="I256" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2</v>
+      </c>
+      <c r="B257" s="1">
+        <v>42738.580659722225</v>
+      </c>
+      <c r="C257">
+        <v>169470</v>
+      </c>
+      <c r="D257" t="s">
+        <v>508</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1</v>
+      </c>
+      <c r="F257" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G257" s="2">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H257" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I257" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>3</v>
+      </c>
+      <c r="B258" s="1">
+        <v>42738.578715277778</v>
+      </c>
+      <c r="C258">
+        <v>60554</v>
+      </c>
+      <c r="D258" t="s">
+        <v>510</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1</v>
+      </c>
+      <c r="F258" s="2">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="G258" s="2">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="H258" s="2">
+        <v>0</v>
+      </c>
+      <c r="I258" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>4</v>
+      </c>
+      <c r="B259" s="1">
+        <v>42738.576921296299</v>
+      </c>
+      <c r="C259">
+        <v>89945</v>
+      </c>
+      <c r="D259" t="s">
+        <v>512</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1</v>
+      </c>
+      <c r="F259" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="G259" s="2">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="H259" s="2">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="I259" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>5</v>
+      </c>
+      <c r="B260" s="1">
+        <v>42738.574791666666</v>
+      </c>
+      <c r="C260">
+        <v>73149</v>
+      </c>
+      <c r="D260" t="s">
+        <v>514</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1</v>
+      </c>
+      <c r="F260" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="G260" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="H260" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I260" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>6</v>
+      </c>
+      <c r="B261" s="1">
+        <v>42738.574467592596</v>
+      </c>
+      <c r="C261">
+        <v>144374</v>
+      </c>
+      <c r="D261" t="s">
+        <v>516</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1</v>
+      </c>
+      <c r="F261" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G261" s="2">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="H261" s="2">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="I261" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>7</v>
+      </c>
+      <c r="B262" s="1">
+        <v>42738.572812500002</v>
+      </c>
+      <c r="C262">
+        <v>89846</v>
+      </c>
+      <c r="D262" t="s">
+        <v>518</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1</v>
+      </c>
+      <c r="F262" s="2">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="G262" s="2">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="H262" s="2">
+        <v>0</v>
+      </c>
+      <c r="I262" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>8</v>
+      </c>
+      <c r="B263" s="1">
+        <v>42738.572071759256</v>
+      </c>
+      <c r="C263">
+        <v>152835</v>
+      </c>
+      <c r="D263" t="s">
+        <v>520</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1</v>
+      </c>
+      <c r="F263" s="2">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="G263" s="2">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="H263" s="2">
+        <v>0</v>
+      </c>
+      <c r="I263" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>9</v>
+      </c>
+      <c r="B264" s="1">
+        <v>42738.571006944447</v>
+      </c>
+      <c r="C264">
+        <v>119710</v>
+      </c>
+      <c r="D264" t="s">
+        <v>522</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1</v>
+      </c>
+      <c r="F264" s="2">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="G264" s="2">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="H264" s="2">
+        <v>0</v>
+      </c>
+      <c r="I264" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265" s="1">
+        <v>42738.652650462966</v>
+      </c>
+      <c r="C265">
+        <v>64310</v>
+      </c>
+      <c r="D265" t="s">
+        <v>524</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1</v>
+      </c>
+      <c r="F265" s="2">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="G265" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="H265" s="2">
+        <v>0</v>
+      </c>
+      <c r="I265" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266" s="1">
+        <v>42738.652430555558</v>
+      </c>
+      <c r="C266">
+        <v>19170</v>
+      </c>
+      <c r="D266" t="s">
+        <v>526</v>
+      </c>
+      <c r="E266" t="s">
+        <v>1</v>
+      </c>
+      <c r="F266" s="2">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G266" s="2">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="H266" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I266" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>3</v>
+      </c>
+      <c r="B267" s="1">
+        <v>42738.652071759258</v>
+      </c>
+      <c r="C267">
+        <v>53925</v>
+      </c>
+      <c r="D267" t="s">
+        <v>528</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1</v>
+      </c>
+      <c r="F267" s="2">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="G267" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H267" s="2">
+        <v>0</v>
+      </c>
+      <c r="I267" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>4</v>
+      </c>
+      <c r="B268" s="1">
+        <v>42738.651724537034</v>
+      </c>
+      <c r="C268">
+        <v>180852</v>
+      </c>
+      <c r="D268" t="s">
+        <v>530</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1</v>
+      </c>
+      <c r="F268" s="2">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="G268" s="2">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="H268" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I268" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>5</v>
+      </c>
+      <c r="B269" s="1">
+        <v>42738.650347222225</v>
+      </c>
+      <c r="C269">
+        <v>15200</v>
+      </c>
+      <c r="D269" t="s">
+        <v>70</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1</v>
+      </c>
+      <c r="F269" s="2">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="G269" s="2">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="H269" s="2">
+        <v>0</v>
+      </c>
+      <c r="I269" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>6</v>
+      </c>
+      <c r="B270" s="1">
+        <v>42738.647997685184</v>
+      </c>
+      <c r="C270">
+        <v>50090</v>
+      </c>
+      <c r="D270" t="s">
+        <v>533</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1</v>
+      </c>
+      <c r="F270" s="2">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="G270" s="2">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="H270" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="I270" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>7</v>
+      </c>
+      <c r="B271" s="1">
+        <v>42738.647083333337</v>
+      </c>
+      <c r="C271">
+        <v>31575</v>
+      </c>
+      <c r="D271" t="s">
+        <v>535</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1</v>
+      </c>
+      <c r="F271" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="G271" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="H271" s="2">
+        <v>0</v>
+      </c>
+      <c r="I271" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>8</v>
+      </c>
+      <c r="B272" s="1">
+        <v>42738.646863425929</v>
+      </c>
+      <c r="C272">
+        <v>157850</v>
+      </c>
+      <c r="D272" t="s">
+        <v>537</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1</v>
+      </c>
+      <c r="F272" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G272" s="2">
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="H272" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="I272" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>9</v>
+      </c>
+      <c r="B273" s="1">
+        <v>42738.645810185182</v>
+      </c>
+      <c r="C273">
+        <v>9039</v>
+      </c>
+      <c r="D273" t="s">
+        <v>539</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1</v>
+      </c>
+      <c r="F273" s="2">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="G273" s="2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H273" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I273" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>10</v>
+      </c>
+      <c r="B274" s="1">
+        <v>42738.645462962966</v>
+      </c>
+      <c r="C274">
+        <v>62758</v>
+      </c>
+      <c r="D274" t="s">
+        <v>541</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1</v>
+      </c>
+      <c r="F274" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G274" s="2">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="H274" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I274" t="s">
+        <v>542</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/chesstempo_tactics.xlsx
+++ b/chesstempo_tactics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="704">
   <si>
     <t>969.4</t>
   </si>
@@ -1653,6 +1653,489 @@
   </si>
   <si>
     <t>1328.3 (+1.9)</t>
+  </si>
+  <si>
+    <t>1179.3</t>
+  </si>
+  <si>
+    <t>1335.1 (+2.0)</t>
+  </si>
+  <si>
+    <t>1242.4</t>
+  </si>
+  <si>
+    <t>1333.1 (+2.6)</t>
+  </si>
+  <si>
+    <t>1226.4</t>
+  </si>
+  <si>
+    <t>1330.5 (+2.5)</t>
+  </si>
+  <si>
+    <t>1196.1</t>
+  </si>
+  <si>
+    <t>1328.0 (+2.2)</t>
+  </si>
+  <si>
+    <t>1325.7 (+2.6)</t>
+  </si>
+  <si>
+    <t>1265.0</t>
+  </si>
+  <si>
+    <t>1323.1 (+2.9)</t>
+  </si>
+  <si>
+    <t>1183.1</t>
+  </si>
+  <si>
+    <t>1320.2 (+2.2)</t>
+  </si>
+  <si>
+    <t>1083.8</t>
+  </si>
+  <si>
+    <t>1318.0 (+1.5)</t>
+  </si>
+  <si>
+    <t>1316.6 (-4.5)</t>
+  </si>
+  <si>
+    <t>1134.5</t>
+  </si>
+  <si>
+    <t>1321.0 (+1.8)</t>
+  </si>
+  <si>
+    <t>1193.9</t>
+  </si>
+  <si>
+    <t>1319.2 (-4.7)</t>
+  </si>
+  <si>
+    <t>1439.9</t>
+  </si>
+  <si>
+    <t>1324.0 (-2.4)</t>
+  </si>
+  <si>
+    <t>1277.7</t>
+  </si>
+  <si>
+    <t>1326.4 (+3.1)</t>
+  </si>
+  <si>
+    <t>1268.3</t>
+  </si>
+  <si>
+    <t>1323.3 (-4.3)</t>
+  </si>
+  <si>
+    <t>1317.1</t>
+  </si>
+  <si>
+    <t>1338.0 (-3.7)</t>
+  </si>
+  <si>
+    <t>1213.4</t>
+  </si>
+  <si>
+    <t>1341.7 (+2.3)</t>
+  </si>
+  <si>
+    <t>1151.8</t>
+  </si>
+  <si>
+    <t>1339.4 (-5.3)</t>
+  </si>
+  <si>
+    <t>1317.3</t>
+  </si>
+  <si>
+    <t>1344.7 (+3.2)</t>
+  </si>
+  <si>
+    <t>1306.5</t>
+  </si>
+  <si>
+    <t>1341.5 (+3.2)</t>
+  </si>
+  <si>
+    <t>1258.5</t>
+  </si>
+  <si>
+    <t>1338.3 (+2.7)</t>
+  </si>
+  <si>
+    <t>1098.4</t>
+  </si>
+  <si>
+    <t>1335.6 (+1.4)</t>
+  </si>
+  <si>
+    <t>1296.8</t>
+  </si>
+  <si>
+    <t>1334.1 (-3.9)</t>
+  </si>
+  <si>
+    <t>1275.2</t>
+  </si>
+  <si>
+    <t>1338.0 (+2.9)</t>
+  </si>
+  <si>
+    <t>1137.3</t>
+  </si>
+  <si>
+    <t>1358.7 (+1.5)</t>
+  </si>
+  <si>
+    <t>1166.6</t>
+  </si>
+  <si>
+    <t>1357.2 (-5.3)</t>
+  </si>
+  <si>
+    <t>1433.5</t>
+  </si>
+  <si>
+    <t>1362.5 (+4.2)</t>
+  </si>
+  <si>
+    <t>1137.1</t>
+  </si>
+  <si>
+    <t>1358.2 (+1.5)</t>
+  </si>
+  <si>
+    <t>1277.6</t>
+  </si>
+  <si>
+    <t>1356.7 (+2.7)</t>
+  </si>
+  <si>
+    <t>1104.5</t>
+  </si>
+  <si>
+    <t>1354.0 (+1.4)</t>
+  </si>
+  <si>
+    <t>1191.0</t>
+  </si>
+  <si>
+    <t>1352.6 (+2.0)</t>
+  </si>
+  <si>
+    <t>1228.9</t>
+  </si>
+  <si>
+    <t>1350.6 (+2.3)</t>
+  </si>
+  <si>
+    <t>1063.7</t>
+  </si>
+  <si>
+    <t>1348.3 (+1.1)</t>
+  </si>
+  <si>
+    <t>1404.1</t>
+  </si>
+  <si>
+    <t>1347.1 (+4.1)</t>
+  </si>
+  <si>
+    <t>1273.9</t>
+  </si>
+  <si>
+    <t>1343.0 (+2.8)</t>
+  </si>
+  <si>
+    <t>1204.9</t>
+  </si>
+  <si>
+    <t>1340.2 (+2.2)</t>
+  </si>
+  <si>
+    <t>1379.6</t>
+  </si>
+  <si>
+    <t>1350.8 (-3.2)</t>
+  </si>
+  <si>
+    <t>1354.1 (-4.8)</t>
+  </si>
+  <si>
+    <t>1283.3</t>
+  </si>
+  <si>
+    <t>1358.9 (+2.8)</t>
+  </si>
+  <si>
+    <t>1173.5</t>
+  </si>
+  <si>
+    <t>1356.1 (-5.2)</t>
+  </si>
+  <si>
+    <t>1232.7</t>
+  </si>
+  <si>
+    <t>1361.3 (+2.3)</t>
+  </si>
+  <si>
+    <t>1297.7</t>
+  </si>
+  <si>
+    <t>1359.1 (+2.9)</t>
+  </si>
+  <si>
+    <t>1356.1 (+2.0)</t>
+  </si>
+  <si>
+    <t>1284.1</t>
+  </si>
+  <si>
+    <t>1354.1 (-4.2)</t>
+  </si>
+  <si>
+    <t>1087.0</t>
+  </si>
+  <si>
+    <t>1358.3 (+1.2)</t>
+  </si>
+  <si>
+    <t>1004.7</t>
+  </si>
+  <si>
+    <t>1357.1 (+0.8)</t>
+  </si>
+  <si>
+    <t>1165.0</t>
+  </si>
+  <si>
+    <t>1356.3 (-5.3)</t>
+  </si>
+  <si>
+    <t>1278.2</t>
+  </si>
+  <si>
+    <t>1361.6 (+2.7)</t>
+  </si>
+  <si>
+    <t>1316.5</t>
+  </si>
+  <si>
+    <t>1358.9 (+3.1)</t>
+  </si>
+  <si>
+    <t>1059.6</t>
+  </si>
+  <si>
+    <t>1355.8 (+1.1)</t>
+  </si>
+  <si>
+    <t>1306.0</t>
+  </si>
+  <si>
+    <t>1354.7 (-4.0)</t>
+  </si>
+  <si>
+    <t>1379.2</t>
+  </si>
+  <si>
+    <t>1349.7 (+3.8)</t>
+  </si>
+  <si>
+    <t>1200.8</t>
+  </si>
+  <si>
+    <t>1345.9 (+2.1)</t>
+  </si>
+  <si>
+    <t>1283.0</t>
+  </si>
+  <si>
+    <t>1343.8 (+2.9)</t>
+  </si>
+  <si>
+    <t>1111.3</t>
+  </si>
+  <si>
+    <t>1340.9 (-5.6)</t>
+  </si>
+  <si>
+    <t>1132.2</t>
+  </si>
+  <si>
+    <t>1346.4 (+1.6)</t>
+  </si>
+  <si>
+    <t>1266.5</t>
+  </si>
+  <si>
+    <t>1344.9 (-4.3)</t>
+  </si>
+  <si>
+    <t>1259.6</t>
+  </si>
+  <si>
+    <t>1349.2 (-4.4)</t>
+  </si>
+  <si>
+    <t>1236.1</t>
+  </si>
+  <si>
+    <t>1353.6 (+2.4)</t>
+  </si>
+  <si>
+    <t>1163.7</t>
+  </si>
+  <si>
+    <t>1351.2 (+1.8)</t>
+  </si>
+  <si>
+    <t>1308.9</t>
+  </si>
+  <si>
+    <t>1349.4 (-3.9)</t>
+  </si>
+  <si>
+    <t>1249.4</t>
+  </si>
+  <si>
+    <t>1353.3 (+2.5)</t>
+  </si>
+  <si>
+    <t>1295.0</t>
+  </si>
+  <si>
+    <t>1376.5 (+2.7)</t>
+  </si>
+  <si>
+    <t>1225.9</t>
+  </si>
+  <si>
+    <t>1373.8 (+2.1)</t>
+  </si>
+  <si>
+    <t>1290.8</t>
+  </si>
+  <si>
+    <t>1371.7 (+2.7)</t>
+  </si>
+  <si>
+    <t>1266.4</t>
+  </si>
+  <si>
+    <t>1369.0 (+2.5)</t>
+  </si>
+  <si>
+    <t>1299.5</t>
+  </si>
+  <si>
+    <t>1366.5 (+2.9)</t>
+  </si>
+  <si>
+    <t>1258.0</t>
+  </si>
+  <si>
+    <t>1363.6 (+2.5)</t>
+  </si>
+  <si>
+    <t>1279.7</t>
+  </si>
+  <si>
+    <t>1361.2 (-4.3)</t>
+  </si>
+  <si>
+    <t>1212.0</t>
+  </si>
+  <si>
+    <t>1365.5 (+2.1)</t>
+  </si>
+  <si>
+    <t>1294.5</t>
+  </si>
+  <si>
+    <t>1363.4 (+2.8)</t>
+  </si>
+  <si>
+    <t>1349.7</t>
+  </si>
+  <si>
+    <t>1360.6 (+3.4)</t>
+  </si>
+  <si>
+    <t>1010.0</t>
+  </si>
+  <si>
+    <t>1357.2 (+0.8)</t>
+  </si>
+  <si>
+    <t>1356.3 (+2.0)</t>
+  </si>
+  <si>
+    <t>1226.5</t>
+  </si>
+  <si>
+    <t>1354.3 (-4.8)</t>
+  </si>
+  <si>
+    <t>1009.7</t>
+  </si>
+  <si>
+    <t>1359.1 (+0.8)</t>
+  </si>
+  <si>
+    <t>1279.4</t>
+  </si>
+  <si>
+    <t>1358.3 (-4.3)</t>
+  </si>
+  <si>
+    <t>1239.6</t>
+  </si>
+  <si>
+    <t>1362.6 (+2.3)</t>
+  </si>
+  <si>
+    <t>1151.4</t>
+  </si>
+  <si>
+    <t>1360.2 (+1.6)</t>
+  </si>
+  <si>
+    <t>1358.6 (+2.6)</t>
+  </si>
+  <si>
+    <t>1218.1</t>
+  </si>
+  <si>
+    <t>1356.0 (-4.9)</t>
+  </si>
+  <si>
+    <t>1424.5</t>
+  </si>
+  <si>
+    <t>1360.9 (+4.2)</t>
+  </si>
+  <si>
+    <t>1205.2</t>
+  </si>
+  <si>
+    <t>1356.7 (+2.1)</t>
+  </si>
+  <si>
+    <t>1354.6 (+2.2)</t>
+  </si>
+  <si>
+    <t>1269.0</t>
+  </si>
+  <si>
+    <t>1352.4 (+2.7)</t>
   </si>
 </sst>
 </file>
@@ -1972,10 +2455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I274"/>
+  <dimension ref="A1:I358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265:I274"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="J336" sqref="J336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9929,6 +10412,2442 @@
         <v>542</v>
       </c>
     </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275" s="1">
+        <v>42739.484444444446</v>
+      </c>
+      <c r="C275">
+        <v>28367</v>
+      </c>
+      <c r="D275" t="s">
+        <v>543</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1</v>
+      </c>
+      <c r="F275" s="2">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="G275" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H275" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I275" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2</v>
+      </c>
+      <c r="B276" s="1">
+        <v>42739.48400462963</v>
+      </c>
+      <c r="C276">
+        <v>60646</v>
+      </c>
+      <c r="D276" t="s">
+        <v>545</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1</v>
+      </c>
+      <c r="F276" s="2">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="G276" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H276" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I276" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>3</v>
+      </c>
+      <c r="B277" s="1">
+        <v>42739.483587962961</v>
+      </c>
+      <c r="C277">
+        <v>40465</v>
+      </c>
+      <c r="D277" t="s">
+        <v>547</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1</v>
+      </c>
+      <c r="F277" s="2">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="G277" s="2">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="H277" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I277" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>4</v>
+      </c>
+      <c r="B278" s="1">
+        <v>42739.483356481483</v>
+      </c>
+      <c r="C278">
+        <v>14013</v>
+      </c>
+      <c r="D278" t="s">
+        <v>549</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1</v>
+      </c>
+      <c r="F278" s="2">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="G278" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="H278" s="2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="I278" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>5</v>
+      </c>
+      <c r="B279" s="1">
+        <v>42739.482800925929</v>
+      </c>
+      <c r="C279">
+        <v>76593</v>
+      </c>
+      <c r="D279" t="s">
+        <v>220</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1</v>
+      </c>
+      <c r="F279" s="2">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="G279" s="2">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="H279" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I279" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>6</v>
+      </c>
+      <c r="B280" s="1">
+        <v>42739.482256944444</v>
+      </c>
+      <c r="C280">
+        <v>15297</v>
+      </c>
+      <c r="D280" t="s">
+        <v>552</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1</v>
+      </c>
+      <c r="F280" s="2">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="G280" s="2">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="H280" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I280" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>7</v>
+      </c>
+      <c r="B281" s="1">
+        <v>42739.481585648151</v>
+      </c>
+      <c r="C281">
+        <v>23034</v>
+      </c>
+      <c r="D281" t="s">
+        <v>554</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1</v>
+      </c>
+      <c r="F281" s="2">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="G281" s="2">
+        <v>0.12222222222222223</v>
+      </c>
+      <c r="H281" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I281" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>8</v>
+      </c>
+      <c r="B282" s="1">
+        <v>42739.479502314818</v>
+      </c>
+      <c r="C282">
+        <v>50818</v>
+      </c>
+      <c r="D282" t="s">
+        <v>556</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1</v>
+      </c>
+      <c r="F282" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G282" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="H282" s="2">
+        <v>0</v>
+      </c>
+      <c r="I282" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>9</v>
+      </c>
+      <c r="B283" s="1">
+        <v>42739.479120370372</v>
+      </c>
+      <c r="C283">
+        <v>174631</v>
+      </c>
+      <c r="D283" t="s">
+        <v>374</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1</v>
+      </c>
+      <c r="F283" s="2">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="G283" s="2">
+        <v>0.12013888888888889</v>
+      </c>
+      <c r="H283" s="2">
+        <v>0</v>
+      </c>
+      <c r="I283" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>10</v>
+      </c>
+      <c r="B284" s="1">
+        <v>42739.477071759262</v>
+      </c>
+      <c r="C284">
+        <v>88448</v>
+      </c>
+      <c r="D284" t="s">
+        <v>559</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1</v>
+      </c>
+      <c r="F284" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="G284" s="2">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="H284" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I284" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>11</v>
+      </c>
+      <c r="B285" s="1">
+        <v>42739.4766087963</v>
+      </c>
+      <c r="C285">
+        <v>52953</v>
+      </c>
+      <c r="D285" t="s">
+        <v>561</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1</v>
+      </c>
+      <c r="F285" s="2">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="G285" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="H285" s="2">
+        <v>0</v>
+      </c>
+      <c r="I285" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>12</v>
+      </c>
+      <c r="B286" s="1">
+        <v>42739.476157407407</v>
+      </c>
+      <c r="C286">
+        <v>103694</v>
+      </c>
+      <c r="D286" t="s">
+        <v>563</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1</v>
+      </c>
+      <c r="F286" s="2">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="G286" s="2">
+        <v>9.375E-2</v>
+      </c>
+      <c r="H286" s="2">
+        <v>0</v>
+      </c>
+      <c r="I286" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>13</v>
+      </c>
+      <c r="B287" s="1">
+        <v>42739.474537037036</v>
+      </c>
+      <c r="C287">
+        <v>61740</v>
+      </c>
+      <c r="D287" t="s">
+        <v>565</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1</v>
+      </c>
+      <c r="F287" s="2">
+        <v>9.1666666666666674E-2</v>
+      </c>
+      <c r="G287" s="2">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="H287" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I287" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>14</v>
+      </c>
+      <c r="B288" s="1">
+        <v>42739.473437499997</v>
+      </c>
+      <c r="C288">
+        <v>98210</v>
+      </c>
+      <c r="D288" t="s">
+        <v>567</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1</v>
+      </c>
+      <c r="F288" s="2">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="G288" s="2">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H288" s="2">
+        <v>0</v>
+      </c>
+      <c r="I288" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289" s="1">
+        <v>42739.509953703702</v>
+      </c>
+      <c r="C289">
+        <v>177721</v>
+      </c>
+      <c r="D289" t="s">
+        <v>569</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1</v>
+      </c>
+      <c r="F289" s="2">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="G289" s="2">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="H289" s="2">
+        <v>0</v>
+      </c>
+      <c r="I289" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>2</v>
+      </c>
+      <c r="B290" s="1">
+        <v>42739.509016203701</v>
+      </c>
+      <c r="C290">
+        <v>102911</v>
+      </c>
+      <c r="D290" t="s">
+        <v>571</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1</v>
+      </c>
+      <c r="F290" s="2">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="G290" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="H290" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="I290" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>3</v>
+      </c>
+      <c r="B291" s="1">
+        <v>42739.504467592589</v>
+      </c>
+      <c r="C291">
+        <v>78868</v>
+      </c>
+      <c r="D291" t="s">
+        <v>573</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1</v>
+      </c>
+      <c r="F291" s="2">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="G291" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="H291" s="2">
+        <v>0</v>
+      </c>
+      <c r="I291" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>4</v>
+      </c>
+      <c r="B292" s="1">
+        <v>42739.504282407404</v>
+      </c>
+      <c r="C292">
+        <v>73288</v>
+      </c>
+      <c r="D292" t="s">
+        <v>575</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1</v>
+      </c>
+      <c r="F292" s="2">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="G292" s="2">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="H292" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="I292" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>5</v>
+      </c>
+      <c r="B293" s="1">
+        <v>42739.503634259258</v>
+      </c>
+      <c r="C293">
+        <v>115765</v>
+      </c>
+      <c r="D293" t="s">
+        <v>577</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1</v>
+      </c>
+      <c r="F293" s="2">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="G293" s="2">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="H293" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I293" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>6</v>
+      </c>
+      <c r="B294" s="1">
+        <v>42739.503194444442</v>
+      </c>
+      <c r="C294">
+        <v>21662</v>
+      </c>
+      <c r="D294" t="s">
+        <v>579</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1</v>
+      </c>
+      <c r="F294" s="2">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="G294" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H294" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I294" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>7</v>
+      </c>
+      <c r="B295" s="1">
+        <v>42739.502962962964</v>
+      </c>
+      <c r="C295">
+        <v>70933</v>
+      </c>
+      <c r="D295" t="s">
+        <v>581</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1</v>
+      </c>
+      <c r="F295" s="2">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="G295" s="2">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="H295" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I295" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>8</v>
+      </c>
+      <c r="B296" s="1">
+        <v>42739.502060185187</v>
+      </c>
+      <c r="C296">
+        <v>78005</v>
+      </c>
+      <c r="D296" t="s">
+        <v>583</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1</v>
+      </c>
+      <c r="F296" s="2">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="G296" s="2">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="H296" s="2">
+        <v>0</v>
+      </c>
+      <c r="I296" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>9</v>
+      </c>
+      <c r="B297" s="1">
+        <v>42739.499363425923</v>
+      </c>
+      <c r="C297">
+        <v>159166</v>
+      </c>
+      <c r="D297" t="s">
+        <v>585</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1</v>
+      </c>
+      <c r="F297" s="2">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="G297" s="2">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="H297" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I297" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298" s="1">
+        <v>42739.536585648151</v>
+      </c>
+      <c r="C298">
+        <v>55374</v>
+      </c>
+      <c r="D298" t="s">
+        <v>587</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1</v>
+      </c>
+      <c r="F298" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="G298" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H298" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I298" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2</v>
+      </c>
+      <c r="B299" s="1">
+        <v>42739.535196759258</v>
+      </c>
+      <c r="C299">
+        <v>18170</v>
+      </c>
+      <c r="D299" t="s">
+        <v>589</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1</v>
+      </c>
+      <c r="F299" s="2">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="G299" s="2">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="H299" s="2">
+        <v>0</v>
+      </c>
+      <c r="I299" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>3</v>
+      </c>
+      <c r="B300" s="1">
+        <v>42739.533622685187</v>
+      </c>
+      <c r="C300">
+        <v>75617</v>
+      </c>
+      <c r="D300" t="s">
+        <v>591</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1</v>
+      </c>
+      <c r="F300" s="2">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="G300" s="2">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="H300" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I300" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>4</v>
+      </c>
+      <c r="B301" s="1">
+        <v>42739.533182870371</v>
+      </c>
+      <c r="C301">
+        <v>156689</v>
+      </c>
+      <c r="D301" t="s">
+        <v>593</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1</v>
+      </c>
+      <c r="F301" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G301" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="H301" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I301" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>5</v>
+      </c>
+      <c r="B302" s="1">
+        <v>42739.532893518517</v>
+      </c>
+      <c r="C302">
+        <v>74244</v>
+      </c>
+      <c r="D302" t="s">
+        <v>595</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1</v>
+      </c>
+      <c r="F302" s="2">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="G302" s="2">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="H302" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I302" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>6</v>
+      </c>
+      <c r="B303" s="1">
+        <v>42739.532395833332</v>
+      </c>
+      <c r="C303">
+        <v>56766</v>
+      </c>
+      <c r="D303" t="s">
+        <v>597</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1</v>
+      </c>
+      <c r="F303" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="G303" s="2">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="H303" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I303" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>7</v>
+      </c>
+      <c r="B304" s="1">
+        <v>42739.532152777778</v>
+      </c>
+      <c r="C304">
+        <v>64653</v>
+      </c>
+      <c r="D304" t="s">
+        <v>599</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1</v>
+      </c>
+      <c r="F304" s="2">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="G304" s="2">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="H304" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I304" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>8</v>
+      </c>
+      <c r="B305" s="1">
+        <v>42739.531215277777</v>
+      </c>
+      <c r="C305">
+        <v>57283</v>
+      </c>
+      <c r="D305" t="s">
+        <v>601</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1</v>
+      </c>
+      <c r="F305" s="2">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="G305" s="2">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="H305" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I305" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>9</v>
+      </c>
+      <c r="B306" s="1">
+        <v>42739.530624999999</v>
+      </c>
+      <c r="C306">
+        <v>41039</v>
+      </c>
+      <c r="D306" t="s">
+        <v>603</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1</v>
+      </c>
+      <c r="F306" s="2">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="G306" s="2">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="H306" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I306" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>10</v>
+      </c>
+      <c r="B307" s="1">
+        <v>42739.530347222222</v>
+      </c>
+      <c r="C307">
+        <v>148293</v>
+      </c>
+      <c r="D307" t="s">
+        <v>605</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1</v>
+      </c>
+      <c r="F307" s="2">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="G307" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H307" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I307" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>11</v>
+      </c>
+      <c r="B308" s="1">
+        <v>42739.529780092591</v>
+      </c>
+      <c r="C308">
+        <v>121602</v>
+      </c>
+      <c r="D308" t="s">
+        <v>607</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1</v>
+      </c>
+      <c r="F308" s="2">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="G308" s="2">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="H308" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I308" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>12</v>
+      </c>
+      <c r="B309" s="1">
+        <v>42739.528078703705</v>
+      </c>
+      <c r="C309">
+        <v>75472</v>
+      </c>
+      <c r="D309" t="s">
+        <v>609</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1</v>
+      </c>
+      <c r="F309" s="2">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="G309" s="2">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="H309" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I309" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>1</v>
+      </c>
+      <c r="B310" s="1">
+        <v>42739.597870370373</v>
+      </c>
+      <c r="C310">
+        <v>120986</v>
+      </c>
+      <c r="D310" t="s">
+        <v>611</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1</v>
+      </c>
+      <c r="F310" s="2">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="G310" s="2">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="H310" s="2">
+        <v>0</v>
+      </c>
+      <c r="I310" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>2</v>
+      </c>
+      <c r="B311" s="1">
+        <v>42739.596886574072</v>
+      </c>
+      <c r="C311">
+        <v>106223</v>
+      </c>
+      <c r="D311" t="s">
+        <v>462</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1</v>
+      </c>
+      <c r="F311" s="2">
+        <v>0.11041666666666666</v>
+      </c>
+      <c r="G311" s="2">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="H311" s="2">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="I311" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>3</v>
+      </c>
+      <c r="B312" s="1">
+        <v>42739.592766203707</v>
+      </c>
+      <c r="C312">
+        <v>73537</v>
+      </c>
+      <c r="D312" t="s">
+        <v>614</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1</v>
+      </c>
+      <c r="F312" s="2">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="G312" s="2">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="H312" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I312" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>4</v>
+      </c>
+      <c r="B313" s="1">
+        <v>42739.591608796298</v>
+      </c>
+      <c r="C313">
+        <v>48419</v>
+      </c>
+      <c r="D313" t="s">
+        <v>616</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1</v>
+      </c>
+      <c r="F313" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G313" s="2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H313" s="2">
+        <v>0</v>
+      </c>
+      <c r="I313" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>5</v>
+      </c>
+      <c r="B314" s="1">
+        <v>42739.591284722221</v>
+      </c>
+      <c r="C314">
+        <v>79017</v>
+      </c>
+      <c r="D314" t="s">
+        <v>618</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1</v>
+      </c>
+      <c r="F314" s="2">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="G314" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="H314" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I314" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>6</v>
+      </c>
+      <c r="B315" s="1">
+        <v>42739.590254629627</v>
+      </c>
+      <c r="C315">
+        <v>168780</v>
+      </c>
+      <c r="D315" t="s">
+        <v>620</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1</v>
+      </c>
+      <c r="F315" s="2">
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="G315" s="2">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="H315" s="2">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="I315" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>7</v>
+      </c>
+      <c r="B316" s="1">
+        <v>42739.589583333334</v>
+      </c>
+      <c r="C316">
+        <v>4419</v>
+      </c>
+      <c r="D316" t="s">
+        <v>417</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1</v>
+      </c>
+      <c r="F316" s="2">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="G316" s="2">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="H316" s="2">
+        <v>0</v>
+      </c>
+      <c r="I316" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>8</v>
+      </c>
+      <c r="B317" s="1">
+        <v>42739.588043981479</v>
+      </c>
+      <c r="C317">
+        <v>63498</v>
+      </c>
+      <c r="D317" t="s">
+        <v>623</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1</v>
+      </c>
+      <c r="F317" s="2">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="G317" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="H317" s="2">
+        <v>0</v>
+      </c>
+      <c r="I317" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>9</v>
+      </c>
+      <c r="B318" s="1">
+        <v>42739.587881944448</v>
+      </c>
+      <c r="C318">
+        <v>111324</v>
+      </c>
+      <c r="D318" t="s">
+        <v>625</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1</v>
+      </c>
+      <c r="F318" s="2">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="G318" s="2">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="H318" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I318" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>10</v>
+      </c>
+      <c r="B319" s="1">
+        <v>42739.587372685186</v>
+      </c>
+      <c r="C319">
+        <v>71417</v>
+      </c>
+      <c r="D319" t="s">
+        <v>627</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1</v>
+      </c>
+      <c r="F319" s="2">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="G319" s="2">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="H319" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="I319" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>11</v>
+      </c>
+      <c r="B320" s="1">
+        <v>42739.586550925924</v>
+      </c>
+      <c r="C320">
+        <v>62315</v>
+      </c>
+      <c r="D320" t="s">
+        <v>629</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1</v>
+      </c>
+      <c r="F320" s="2">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="G320" s="2">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="H320" s="2">
+        <v>0</v>
+      </c>
+      <c r="I320" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>12</v>
+      </c>
+      <c r="B321" s="1">
+        <v>42739.586145833331</v>
+      </c>
+      <c r="C321">
+        <v>47210</v>
+      </c>
+      <c r="D321" t="s">
+        <v>631</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1</v>
+      </c>
+      <c r="F321" s="2">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="G321" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H321" s="2">
+        <v>0</v>
+      </c>
+      <c r="I321" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>13</v>
+      </c>
+      <c r="B322" s="1">
+        <v>42739.585868055554</v>
+      </c>
+      <c r="C322">
+        <v>88710</v>
+      </c>
+      <c r="D322" t="s">
+        <v>633</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1</v>
+      </c>
+      <c r="F322" s="2">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="G322" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H322" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I322" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>14</v>
+      </c>
+      <c r="B323" s="1">
+        <v>42739.585439814815</v>
+      </c>
+      <c r="C323">
+        <v>78222</v>
+      </c>
+      <c r="D323" t="s">
+        <v>635</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1</v>
+      </c>
+      <c r="F323" s="2">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="G323" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="H323" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I323" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>15</v>
+      </c>
+      <c r="B324" s="1">
+        <v>42739.585034722222</v>
+      </c>
+      <c r="C324">
+        <v>169777</v>
+      </c>
+      <c r="D324" t="s">
+        <v>637</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1</v>
+      </c>
+      <c r="F324" s="2">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="G324" s="2">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="H324" s="2">
+        <v>0</v>
+      </c>
+      <c r="I324" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1</v>
+      </c>
+      <c r="B325" s="1">
+        <v>42739.661550925928</v>
+      </c>
+      <c r="C325">
+        <v>50391</v>
+      </c>
+      <c r="D325" t="s">
+        <v>639</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1</v>
+      </c>
+      <c r="F325" s="2">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="G325" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H325" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I325" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>2</v>
+      </c>
+      <c r="B326" s="1">
+        <v>42739.661261574074</v>
+      </c>
+      <c r="C326">
+        <v>48312</v>
+      </c>
+      <c r="D326" t="s">
+        <v>641</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1</v>
+      </c>
+      <c r="F326" s="2">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="G326" s="2">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="H326" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I326" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>3</v>
+      </c>
+      <c r="B327" s="1">
+        <v>42739.659629629627</v>
+      </c>
+      <c r="C327">
+        <v>176828</v>
+      </c>
+      <c r="D327" t="s">
+        <v>643</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1</v>
+      </c>
+      <c r="F327" s="2">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="G327" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H327" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="I327" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>4</v>
+      </c>
+      <c r="B328" s="1">
+        <v>42739.65898148148</v>
+      </c>
+      <c r="C328">
+        <v>43667</v>
+      </c>
+      <c r="D328" t="s">
+        <v>645</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1</v>
+      </c>
+      <c r="F328" s="2">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="G328" s="2">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="H328" s="2">
+        <v>0</v>
+      </c>
+      <c r="I328" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>5</v>
+      </c>
+      <c r="B329" s="1">
+        <v>42739.658703703702</v>
+      </c>
+      <c r="C329">
+        <v>94860</v>
+      </c>
+      <c r="D329" t="s">
+        <v>647</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1</v>
+      </c>
+      <c r="F329" s="2">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="G329" s="2">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="H329" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I329" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>6</v>
+      </c>
+      <c r="B330" s="1">
+        <v>42739.65724537037</v>
+      </c>
+      <c r="C330">
+        <v>175824</v>
+      </c>
+      <c r="D330" t="s">
+        <v>649</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1</v>
+      </c>
+      <c r="F330" s="2">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="G330" s="2">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="H330" s="2">
+        <v>0</v>
+      </c>
+      <c r="I330" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>7</v>
+      </c>
+      <c r="B331" s="1">
+        <v>42739.655902777777</v>
+      </c>
+      <c r="C331">
+        <v>164997</v>
+      </c>
+      <c r="D331" t="s">
+        <v>651</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1</v>
+      </c>
+      <c r="F331" s="2">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="G331" s="2">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="H331" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="I331" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>8</v>
+      </c>
+      <c r="B332" s="1">
+        <v>42739.654363425929</v>
+      </c>
+      <c r="C332">
+        <v>53873</v>
+      </c>
+      <c r="D332" t="s">
+        <v>653</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1</v>
+      </c>
+      <c r="F332" s="2">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="G332" s="2">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="H332" s="2">
+        <v>0</v>
+      </c>
+      <c r="I332" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>9</v>
+      </c>
+      <c r="B333" s="1">
+        <v>42739.654004629629</v>
+      </c>
+      <c r="C333">
+        <v>23812</v>
+      </c>
+      <c r="D333" t="s">
+        <v>655</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1</v>
+      </c>
+      <c r="F333" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G333" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H333" s="2">
+        <v>0</v>
+      </c>
+      <c r="I333" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>10</v>
+      </c>
+      <c r="B334" s="1">
+        <v>42739.653599537036</v>
+      </c>
+      <c r="C334">
+        <v>149362</v>
+      </c>
+      <c r="D334" t="s">
+        <v>657</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1</v>
+      </c>
+      <c r="F334" s="2">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="G334" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="H334" s="2">
+        <v>0</v>
+      </c>
+      <c r="I334" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>11</v>
+      </c>
+      <c r="B335" s="1">
+        <v>42739.653414351851</v>
+      </c>
+      <c r="C335">
+        <v>5440</v>
+      </c>
+      <c r="D335" t="s">
+        <v>659</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1</v>
+      </c>
+      <c r="F335" s="2">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G335" s="2">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="H335" s="2">
+        <v>0</v>
+      </c>
+      <c r="I335" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1</v>
+      </c>
+      <c r="B336" s="1">
+        <v>42739.728854166664</v>
+      </c>
+      <c r="C336">
+        <v>57453</v>
+      </c>
+      <c r="D336" t="s">
+        <v>661</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1</v>
+      </c>
+      <c r="F336" s="2">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="G336" s="2">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="H336" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I336" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2</v>
+      </c>
+      <c r="B337" s="1">
+        <v>42739.727754629632</v>
+      </c>
+      <c r="C337">
+        <v>106256</v>
+      </c>
+      <c r="D337" t="s">
+        <v>663</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1</v>
+      </c>
+      <c r="F337" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G337" s="2">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="H337" s="2">
+        <v>0</v>
+      </c>
+      <c r="I337" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>3</v>
+      </c>
+      <c r="B338" s="1">
+        <v>42739.727395833332</v>
+      </c>
+      <c r="C338">
+        <v>79370</v>
+      </c>
+      <c r="D338" t="s">
+        <v>665</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1</v>
+      </c>
+      <c r="F338" s="2">
+        <v>0.11875000000000001</v>
+      </c>
+      <c r="G338" s="2">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="H338" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="I338" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>4</v>
+      </c>
+      <c r="B339" s="1">
+        <v>42739.725752314815</v>
+      </c>
+      <c r="C339">
+        <v>93983</v>
+      </c>
+      <c r="D339" t="s">
+        <v>667</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1</v>
+      </c>
+      <c r="F339" s="2">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="G339" s="2">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="H339" s="2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="I339" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>5</v>
+      </c>
+      <c r="B340" s="1">
+        <v>42739.725023148145</v>
+      </c>
+      <c r="C340">
+        <v>130760</v>
+      </c>
+      <c r="D340" t="s">
+        <v>669</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1</v>
+      </c>
+      <c r="F340" s="2">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="G340" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="H340" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I340" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>6</v>
+      </c>
+      <c r="B341" s="1">
+        <v>42739.723101851851</v>
+      </c>
+      <c r="C341">
+        <v>75383</v>
+      </c>
+      <c r="D341" t="s">
+        <v>671</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1</v>
+      </c>
+      <c r="F341" s="2">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="G341" s="2">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="H341" s="2">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="I341" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>7</v>
+      </c>
+      <c r="B342" s="1">
+        <v>42739.719884259262</v>
+      </c>
+      <c r="C342">
+        <v>102986</v>
+      </c>
+      <c r="D342" t="s">
+        <v>673</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1</v>
+      </c>
+      <c r="F342" s="2">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="G342" s="2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H342" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I342" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>8</v>
+      </c>
+      <c r="B343" s="1">
+        <v>42739.719571759262</v>
+      </c>
+      <c r="C343">
+        <v>104096</v>
+      </c>
+      <c r="D343" t="s">
+        <v>675</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1</v>
+      </c>
+      <c r="F343" s="2">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="G343" s="2">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="H343" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="I343" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>9</v>
+      </c>
+      <c r="B344" s="1">
+        <v>42739.718055555553</v>
+      </c>
+      <c r="C344">
+        <v>166402</v>
+      </c>
+      <c r="D344" t="s">
+        <v>677</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1</v>
+      </c>
+      <c r="F344" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="G344" s="2">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="H344" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I344" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>10</v>
+      </c>
+      <c r="B345" s="1">
+        <v>42739.717812499999</v>
+      </c>
+      <c r="C345">
+        <v>62628</v>
+      </c>
+      <c r="D345" t="s">
+        <v>679</v>
+      </c>
+      <c r="E345" t="s">
+        <v>1</v>
+      </c>
+      <c r="F345" s="2">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="G345" s="2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H345" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="I345" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>11</v>
+      </c>
+      <c r="B346" s="1">
+        <v>42739.717453703706</v>
+      </c>
+      <c r="C346">
+        <v>103770</v>
+      </c>
+      <c r="D346" t="s">
+        <v>681</v>
+      </c>
+      <c r="E346" t="s">
+        <v>1</v>
+      </c>
+      <c r="F346" s="2">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="G346" s="2">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="H346" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I346" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>12</v>
+      </c>
+      <c r="B347" s="1">
+        <v>42739.71707175926</v>
+      </c>
+      <c r="C347">
+        <v>52783</v>
+      </c>
+      <c r="D347" t="s">
+        <v>192</v>
+      </c>
+      <c r="E347" t="s">
+        <v>1</v>
+      </c>
+      <c r="F347" s="2">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G347" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H347" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="I347" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>13</v>
+      </c>
+      <c r="B348" s="1">
+        <v>42739.716458333336</v>
+      </c>
+      <c r="C348">
+        <v>45843</v>
+      </c>
+      <c r="D348" t="s">
+        <v>684</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1</v>
+      </c>
+      <c r="F348" s="2">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="G348" s="2">
+        <v>0.18194444444444444</v>
+      </c>
+      <c r="H348" s="2">
+        <v>0</v>
+      </c>
+      <c r="I348" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>14</v>
+      </c>
+      <c r="B349" s="1">
+        <v>42739.713391203702</v>
+      </c>
+      <c r="C349">
+        <v>56619</v>
+      </c>
+      <c r="D349" t="s">
+        <v>686</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1</v>
+      </c>
+      <c r="F349" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G349" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="H349" s="2">
+        <v>0</v>
+      </c>
+      <c r="I349" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>15</v>
+      </c>
+      <c r="B350" s="1">
+        <v>42739.71292824074</v>
+      </c>
+      <c r="C350">
+        <v>97763</v>
+      </c>
+      <c r="D350" t="s">
+        <v>688</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1</v>
+      </c>
+      <c r="F350" s="2">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="G350" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="H350" s="2">
+        <v>0</v>
+      </c>
+      <c r="I350" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>16</v>
+      </c>
+      <c r="B351" s="1">
+        <v>42739.712777777779</v>
+      </c>
+      <c r="C351">
+        <v>99656</v>
+      </c>
+      <c r="D351" t="s">
+        <v>690</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1</v>
+      </c>
+      <c r="F351" s="2">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="G351" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H351" s="2">
+        <v>0</v>
+      </c>
+      <c r="I351" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>17</v>
+      </c>
+      <c r="B352" s="1">
+        <v>42739.712500000001</v>
+      </c>
+      <c r="C352">
+        <v>32120</v>
+      </c>
+      <c r="D352" t="s">
+        <v>692</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1</v>
+      </c>
+      <c r="F352" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G352" s="2">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="H352" s="2">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="I352" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>18</v>
+      </c>
+      <c r="B353" s="1">
+        <v>42739.711967592593</v>
+      </c>
+      <c r="C353">
+        <v>174515</v>
+      </c>
+      <c r="D353" t="s">
+        <v>552</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1</v>
+      </c>
+      <c r="F353" s="2">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="G353" s="2">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="H353" s="2">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="I353" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>19</v>
+      </c>
+      <c r="B354" s="1">
+        <v>42739.711261574077</v>
+      </c>
+      <c r="C354">
+        <v>162601</v>
+      </c>
+      <c r="D354" t="s">
+        <v>695</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1</v>
+      </c>
+      <c r="F354" s="2">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="G354" s="2">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="H354" s="2">
+        <v>0</v>
+      </c>
+      <c r="I354" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>20</v>
+      </c>
+      <c r="B355" s="1">
+        <v>42739.710555555554</v>
+      </c>
+      <c r="C355">
+        <v>157029</v>
+      </c>
+      <c r="D355" t="s">
+        <v>697</v>
+      </c>
+      <c r="E355" t="s">
+        <v>1</v>
+      </c>
+      <c r="F355" s="2">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="G355" s="2">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="H355" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I355" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>21</v>
+      </c>
+      <c r="B356" s="1">
+        <v>42739.709930555553</v>
+      </c>
+      <c r="C356">
+        <v>52858</v>
+      </c>
+      <c r="D356" t="s">
+        <v>699</v>
+      </c>
+      <c r="E356" t="s">
+        <v>1</v>
+      </c>
+      <c r="F356" s="2">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="G356" s="2">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="H356" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I356" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>22</v>
+      </c>
+      <c r="B357" s="1">
+        <v>42739.709629629629</v>
+      </c>
+      <c r="C357">
+        <v>71349</v>
+      </c>
+      <c r="D357" t="s">
+        <v>224</v>
+      </c>
+      <c r="E357" t="s">
+        <v>1</v>
+      </c>
+      <c r="F357" s="2">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="G357" s="2">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="H357" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I357" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>23</v>
+      </c>
+      <c r="B358" s="1">
+        <v>42739.708645833336</v>
+      </c>
+      <c r="C358">
+        <v>177225</v>
+      </c>
+      <c r="D358" t="s">
+        <v>702</v>
+      </c>
+      <c r="E358" t="s">
+        <v>1</v>
+      </c>
+      <c r="F358" s="2">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="G358" s="2">
+        <v>0.13819444444444443</v>
+      </c>
+      <c r="H358" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="I358" t="s">
+        <v>703</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
